--- a/website/datavzrd/scPerturb_vzrd_v2/data.xlsx
+++ b/website/datavzrd/scPerturb_vzrd_v2/data.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="701">
   <si>
     <t>Full index</t>
   </si>
@@ -350,6 +350,63 @@
     <t>21043.0</t>
   </si>
   <si>
+    <t>CuiHacohen2023</t>
+  </si>
+  <si>
+    <t>Dictionary of immune responses to cytokines at single-cell resolution</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-023-06816-9</t>
+  </si>
+  <si>
+    <t>Ang Cui</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>draining lymph nodes</t>
+  </si>
+  <si>
+    <t>cytokines</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>539717.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>681.5</t>
+  </si>
+  <si>
+    <t>202.0</t>
+  </si>
+  <si>
+    <t>349669.0</t>
+  </si>
+  <si>
     <t>DatlingerBock2017</t>
   </si>
   <si>
@@ -506,9 +563,6 @@
     <t>melanocytes</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>01.08.2020</t>
   </si>
   <si>
@@ -647,18 +701,12 @@
     <t>Jase Gehring</t>
   </si>
   <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
     <t>96-plex scRNA-seq oligo barcodes</t>
   </si>
   <si>
     <t>mouse neural stem cells (human only for species mixing experiment)</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>neural stem cells</t>
   </si>
   <si>
@@ -707,9 +755,6 @@
     <t>stem</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>1145823.0</t>
   </si>
   <si>
@@ -1430,9 +1475,6 @@
     <t>iPSCs</t>
   </si>
   <si>
-    <t>cytokines</t>
-  </si>
-  <si>
     <t>mESCs</t>
   </si>
   <si>
@@ -2049,9 +2091,6 @@
   </si>
   <si>
     <t>glioblastoma</t>
-  </si>
-  <si>
-    <t>mixed</t>
   </si>
   <si>
     <t>01.04.2020</t>
@@ -3037,7 +3076,7 @@
         <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
@@ -3049,25 +3088,25 @@
         <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
         <v>49</v>
@@ -3076,63 +3115,63 @@
         <v>49</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AD7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="AE7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
@@ -3144,19 +3183,19 @@
         <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O8" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Q8" t="s">
         <v>47</v>
@@ -3174,60 +3213,60 @@
         <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="X8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Y8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Z8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AA8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AB8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AC8" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="AD8" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="AE8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>39</v>
@@ -3239,28 +3278,28 @@
         <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="R9" t="s">
         <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
         <v>49</v>
@@ -3269,63 +3308,63 @@
         <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="X9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Y9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Z9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AA9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AB9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AC9" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="AD9" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="AE9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>160</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
@@ -3334,61 +3373,61 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="T10" t="s">
         <v>49</v>
       </c>
       <c r="U10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W10" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="X10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AB10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC10" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" t="s">
-        <v>171</v>
-      </c>
       <c r="AD10" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="AE10" t="s">
         <v>173</v>
@@ -3402,25 +3441,25 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
@@ -3429,22 +3468,22 @@
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="R11" t="s">
         <v>49</v>
@@ -3459,63 +3498,63 @@
         <v>49</v>
       </c>
       <c r="V11" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="W11" t="s">
         <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="Z11" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AA11" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AB11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AD11" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AE11" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" t="s">
         <v>178</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" t="s">
-        <v>182</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
@@ -3524,25 +3563,25 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="O12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" t="s">
         <v>183</v>
       </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
         <v>49</v>
@@ -3551,60 +3590,60 @@
         <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V12" t="s">
         <v>184</v>
       </c>
       <c r="W12" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="X12" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H13" t="s">
         <v>38</v>
@@ -3619,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s">
         <v>43</v>
@@ -3628,7 +3667,7 @@
         <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P13" t="s">
         <v>46</v>
@@ -3649,25 +3688,25 @@
         <v>48</v>
       </c>
       <c r="V13" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="W13" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X13" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Y13" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Z13" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AA13" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AB13" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AC13" t="s">
         <v>68</v>
@@ -3676,30 +3715,30 @@
         <v>68</v>
       </c>
       <c r="AE13" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H14" t="s">
         <v>38</v>
@@ -3714,7 +3753,7 @@
         <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
@@ -3723,7 +3762,7 @@
         <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P14" t="s">
         <v>46</v>
@@ -3744,25 +3783,25 @@
         <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="W14" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X14" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Y14" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Z14" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AA14" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AB14" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AC14" t="s">
         <v>68</v>
@@ -3771,33 +3810,33 @@
         <v>68</v>
       </c>
       <c r="AE14" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -3809,90 +3848,90 @@
         <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
         <v>49</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U15" t="s">
         <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="W15" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="X15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Z15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AA15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AB15" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="AC15" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="AD15" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="AE15" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
@@ -3904,87 +3943,87 @@
         <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N16" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Q16" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s">
         <v>49</v>
       </c>
       <c r="S16" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="V16" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="W16" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="X16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y16" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" t="s">
         <v>234</v>
       </c>
-      <c r="Z16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>237</v>
-      </c>
       <c r="AD16" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="AE16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
         <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
@@ -3999,13 +4038,13 @@
         <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="M17" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="N17" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="O17" t="s">
         <v>79</v>
@@ -4014,7 +4053,7 @@
         <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="R17" t="s">
         <v>49</v>
@@ -4032,57 +4071,57 @@
         <v>79</v>
       </c>
       <c r="W17" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="X17" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Y17" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Z17" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AB17" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="AC17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AD17" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="AE17" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G18" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
@@ -4094,90 +4133,90 @@
         <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M18" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="O18" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>247</v>
+      </c>
+      <c r="R18" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s">
+        <v>124</v>
+      </c>
+      <c r="X18" t="s">
         <v>256</v>
       </c>
-      <c r="Q18" t="s">
-        <v>165</v>
-      </c>
-      <c r="R18" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" t="s">
-        <v>48</v>
-      </c>
-      <c r="T18" t="s">
-        <v>49</v>
-      </c>
-      <c r="U18" t="s">
-        <v>49</v>
-      </c>
-      <c r="V18" t="s">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s">
-        <v>232</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>257</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>258</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>259</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC18" t="s">
         <v>260</v>
       </c>
-      <c r="AB18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>261</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>262</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
         <v>265</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -4189,22 +4228,22 @@
         <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M19" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="P19" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="Q19" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="R19" t="s">
         <v>49</v>
@@ -4222,57 +4261,57 @@
         <v>79</v>
       </c>
       <c r="W19" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="X19" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Y19" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="Z19" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AA19" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AB19" t="s">
         <v>68</v>
       </c>
       <c r="AC19" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AD19" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="AE19" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G20" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
@@ -4284,29 +4323,29 @@
         <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M20" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="N20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" t="s">
         <v>271</v>
       </c>
-      <c r="P20" t="s">
-        <v>256</v>
-      </c>
       <c r="Q20" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="R20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" t="s">
         <v>48</v>
       </c>
-      <c r="S20" t="s">
-        <v>49</v>
-      </c>
       <c r="T20" t="s">
         <v>49</v>
       </c>
@@ -4317,57 +4356,57 @@
         <v>79</v>
       </c>
       <c r="W20" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="X20" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Y20" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="Z20" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AA20" t="s">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s">
         <v>68</v>
       </c>
       <c r="AC20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AD20" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="AE20" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -4379,25 +4418,25 @@
         <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="M21" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="N21" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P21" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="Q21" t="s">
-        <v>285</v>
+        <v>123</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
         <v>49</v>
@@ -4406,34 +4445,34 @@
         <v>49</v>
       </c>
       <c r="U21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V21" t="s">
         <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="X21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB21" t="s">
         <v>68</v>
       </c>
       <c r="AC21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD21" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="AE21" t="s">
         <v>292</v>
@@ -4447,138 +4486,138 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
         <v>294</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>295</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>296</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" t="s">
         <v>297</v>
       </c>
-      <c r="G22" t="s">
+      <c r="N22" t="s">
         <v>298</v>
       </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="O22" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" t="s">
         <v>299</v>
       </c>
-      <c r="J22" t="s">
+      <c r="Q22" t="s">
         <v>300</v>
       </c>
-      <c r="K22" t="s">
+      <c r="R22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s">
+        <v>124</v>
+      </c>
+      <c r="X22" t="s">
         <v>301</v>
       </c>
-      <c r="L22" t="s">
+      <c r="Y22" t="s">
         <v>302</v>
       </c>
-      <c r="M22" t="s">
+      <c r="Z22" t="s">
         <v>303</v>
       </c>
-      <c r="N22" t="s">
-        <v>146</v>
-      </c>
-      <c r="O22" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" t="s">
-        <v>49</v>
-      </c>
-      <c r="U22" t="s">
-        <v>49</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="AA22" t="s">
         <v>304</v>
       </c>
-      <c r="W22" t="s">
-        <v>106</v>
-      </c>
-      <c r="X22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>79</v>
-      </c>
       <c r="AB22" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AC22" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AD22" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AE22" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G23" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="J23" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K23" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L23" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M23" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="N23" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P23" t="s">
         <v>46</v>
@@ -4599,7 +4638,7 @@
         <v>49</v>
       </c>
       <c r="V23" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="W23" t="s">
         <v>106</v>
@@ -4631,52 +4670,52 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="E24" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="L24" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M24" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="P24" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="Q24" t="s">
         <v>47</v>
@@ -4691,60 +4730,60 @@
         <v>49</v>
       </c>
       <c r="U24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V24" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="W24" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="X24" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s">
-        <v>320</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H25" t="s">
         <v>38</v>
@@ -4759,19 +4798,19 @@
         <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N25" t="s">
-        <v>327</v>
+        <v>86</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Q25" t="s">
         <v>47</v>
@@ -4780,19 +4819,19 @@
         <v>48</v>
       </c>
       <c r="S25" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
       <c r="T25" t="s">
         <v>49</v>
       </c>
       <c r="U25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V25" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="X25" t="s">
         <v>329</v>
@@ -4807,7 +4846,7 @@
         <v>332</v>
       </c>
       <c r="AB25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AC25" t="s">
         <v>333</v>
@@ -4845,7 +4884,7 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -4854,28 +4893,28 @@
         <v>41</v>
       </c>
       <c r="L26" t="s">
+        <v>340</v>
+      </c>
+      <c r="M26" t="s">
         <v>341</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>342</v>
       </c>
-      <c r="N26" t="s">
-        <v>146</v>
-      </c>
       <c r="O26" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Q26" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="T26" t="s">
         <v>49</v>
@@ -4884,63 +4923,63 @@
         <v>49</v>
       </c>
       <c r="V26" t="s">
-        <v>343</v>
+        <v>153</v>
       </c>
       <c r="W26" t="s">
         <v>51</v>
       </c>
       <c r="X26" t="s">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Y26" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z26" t="s">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AA26" t="s">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AB26" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AC26" t="s">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AD26" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AE26" t="s">
-        <v>79</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F27" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G27" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="J27" t="s">
         <v>40</v>
@@ -4949,25 +4988,25 @@
         <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>357</v>
       </c>
       <c r="N27" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S27" t="s">
         <v>49</v>
@@ -4976,37 +5015,37 @@
         <v>49</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V27" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="W27" t="s">
         <v>51</v>
       </c>
       <c r="X27" t="s">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s">
-        <v>358</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -5032,10 +5071,10 @@
         <v>364</v>
       </c>
       <c r="H28" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
         <v>40</v>
@@ -5044,19 +5083,19 @@
         <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="N28" t="s">
-        <v>146</v>
+        <v>365</v>
       </c>
       <c r="O28" t="s">
-        <v>368</v>
+        <v>201</v>
       </c>
       <c r="P28" t="s">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="Q28" t="s">
         <v>47</v>
@@ -5071,66 +5110,66 @@
         <v>49</v>
       </c>
       <c r="U28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V28" t="s">
+        <v>366</v>
+      </c>
+      <c r="W28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA28" t="s">
         <v>370</v>
       </c>
-      <c r="W28" t="s">
-        <v>106</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC28" t="s">
         <v>371</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AD28" t="s">
         <v>372</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AE28" t="s">
         <v>373</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D29" t="s">
+        <v>376</v>
+      </c>
+      <c r="E29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" t="s">
         <v>378</v>
       </c>
-      <c r="E29" t="s">
-        <v>362</v>
-      </c>
-      <c r="F29" t="s">
-        <v>363</v>
-      </c>
       <c r="G29" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H29" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
         <v>40</v>
@@ -5139,19 +5178,19 @@
         <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M29" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="N29" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O29" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="P29" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q29" t="s">
         <v>47</v>
@@ -5169,63 +5208,63 @@
         <v>49</v>
       </c>
       <c r="V29" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="W29" t="s">
         <v>106</v>
       </c>
       <c r="X29" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Y29" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Z29" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AA29" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AB29" t="s">
         <v>68</v>
       </c>
       <c r="AC29" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AD29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE29" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D30" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E30" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F30" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G30" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H30" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="I30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
@@ -5234,19 +5273,19 @@
         <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M30" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O30" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="P30" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q30" t="s">
         <v>47</v>
@@ -5264,63 +5303,63 @@
         <v>49</v>
       </c>
       <c r="V30" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="W30" t="s">
         <v>106</v>
       </c>
       <c r="X30" t="s">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="Y30" t="s">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Z30" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AA30" t="s">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AB30" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AC30" t="s">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AD30" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AE30" t="s">
-        <v>79</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G31" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H31" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
@@ -5329,19 +5368,19 @@
         <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M31" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="N31" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O31" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="P31" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q31" t="s">
         <v>47</v>
@@ -5359,7 +5398,7 @@
         <v>49</v>
       </c>
       <c r="V31" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="W31" t="s">
         <v>106</v>
@@ -5391,52 +5430,52 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D32" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E32" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="F32" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="G32" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="M32" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="N32" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="O32" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>384</v>
       </c>
       <c r="Q32" t="s">
         <v>47</v>
@@ -5454,10 +5493,10 @@
         <v>49</v>
       </c>
       <c r="V32" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="W32" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="X32" t="s">
         <v>79</v>
@@ -5486,49 +5525,49 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>406</v>
       </c>
       <c r="E33" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F33" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="G33" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H33" t="s">
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="M33" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="N33" t="s">
         <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P33" t="s">
         <v>46</v>
@@ -5581,52 +5620,52 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D34" t="s">
-        <v>400</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F34" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="M34" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="N34" t="s">
         <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="P34" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="Q34" t="s">
         <v>47</v>
@@ -5676,7 +5715,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -5685,7 +5724,7 @@
         <v>405</v>
       </c>
       <c r="D35" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E35" t="s">
         <v>407</v>
@@ -5697,105 +5736,105 @@
         <v>409</v>
       </c>
       <c r="H35" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
         <v>410</v>
       </c>
       <c r="M35" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="N35" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="P35" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q35" t="s">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="R35" t="s">
         <v>48</v>
       </c>
       <c r="S35" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="U35" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="V35" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="W35" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="X35" t="s">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s">
-        <v>419</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" t="s">
         <v>421</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>422</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>423</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>424</v>
       </c>
-      <c r="G36" t="s">
-        <v>425</v>
-      </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
         <v>40</v>
@@ -5804,61 +5843,61 @@
         <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="O36" t="s">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>428</v>
       </c>
       <c r="Q36" t="s">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="R36" t="s">
         <v>48</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s">
-        <v>428</v>
+        <v>124</v>
       </c>
       <c r="X36" t="s">
         <v>429</v>
       </c>
       <c r="Y36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z36" t="s">
         <v>430</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>431</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC36" t="s">
         <v>432</v>
       </c>
-      <c r="AB36" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>433</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>246</v>
       </c>
       <c r="AE36" t="s">
         <v>434</v>
@@ -5872,19 +5911,19 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E37" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="F37" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="G37" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
@@ -5908,7 +5947,7 @@
         <v>44</v>
       </c>
       <c r="O37" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P37" t="s">
         <v>46</v>
@@ -5929,57 +5968,57 @@
         <v>49</v>
       </c>
       <c r="V37" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="W37" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="X37" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Y37" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="Z37" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AA37" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AB37" t="s">
         <v>68</v>
       </c>
       <c r="AC37" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AD37" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="AE37" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D38" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E38" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="F38" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="G38" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H38" t="s">
         <v>38</v>
@@ -5997,22 +6036,22 @@
         <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
         <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P38" t="s">
-        <v>445</v>
+        <v>46</v>
       </c>
       <c r="Q38" t="s">
         <v>47</v>
       </c>
       <c r="R38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S38" t="s">
         <v>49</v>
@@ -6024,60 +6063,60 @@
         <v>49</v>
       </c>
       <c r="V38" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="W38" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="X38" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Y38" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="Z38" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="AA38" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AB38" t="s">
         <v>68</v>
       </c>
       <c r="AC38" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AD38" t="s">
         <v>56</v>
       </c>
       <c r="AE38" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="E39" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F39" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G39" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="H39" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
         <v>39</v>
@@ -6089,78 +6128,78 @@
         <v>41</v>
       </c>
       <c r="L39" t="s">
-        <v>456</v>
+        <v>42</v>
       </c>
       <c r="M39" t="s">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="N39" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="O39" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="P39" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q39" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="R39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="T39" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="U39" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="V39" t="s">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="W39" t="s">
-        <v>232</v>
+        <v>443</v>
       </c>
       <c r="X39" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Y39" t="s">
-        <v>291</v>
+        <v>462</v>
       </c>
       <c r="Z39" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AA39" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AB39" t="s">
         <v>68</v>
       </c>
       <c r="AC39" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AD39" t="s">
-        <v>463</v>
+        <v>56</v>
       </c>
       <c r="AE39" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D40" t="s">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
         <v>468</v>
@@ -6172,7 +6211,7 @@
         <v>470</v>
       </c>
       <c r="H40" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
@@ -6190,84 +6229,84 @@
         <v>472</v>
       </c>
       <c r="N40" t="s">
+        <v>165</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" t="s">
         <v>473</v>
       </c>
-      <c r="O40" t="s">
-        <v>215</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
+        <v>123</v>
+      </c>
+      <c r="R40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" t="s">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s">
+        <v>124</v>
+      </c>
+      <c r="X40" t="s">
         <v>474</v>
       </c>
-      <c r="Q40" t="s">
-        <v>231</v>
-      </c>
-      <c r="R40" t="s">
-        <v>49</v>
-      </c>
-      <c r="S40" t="s">
-        <v>48</v>
-      </c>
-      <c r="T40" t="s">
-        <v>49</v>
-      </c>
-      <c r="U40" t="s">
-        <v>49</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="Y40" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z40" t="s">
         <v>475</v>
       </c>
-      <c r="W40" t="s">
-        <v>51</v>
-      </c>
-      <c r="X40" t="s">
+      <c r="AA40" t="s">
         <v>476</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>478</v>
       </c>
       <c r="AB40" t="s">
         <v>68</v>
       </c>
       <c r="AC40" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE40" t="s">
         <v>479</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>480</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="D41" t="s">
+        <v>482</v>
+      </c>
+      <c r="E41" t="s">
         <v>483</v>
       </c>
-      <c r="E41" t="s">
-        <v>468</v>
-      </c>
       <c r="F41" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G41" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="I41" t="s">
         <v>39</v>
@@ -6279,22 +6318,22 @@
         <v>41</v>
       </c>
       <c r="L41" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="M41" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="N41" t="s">
-        <v>473</v>
+        <v>120</v>
       </c>
       <c r="O41" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="Q41" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="R41" t="s">
         <v>49</v>
@@ -6309,60 +6348,60 @@
         <v>49</v>
       </c>
       <c r="V41" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="W41" t="s">
         <v>51</v>
       </c>
       <c r="X41" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Y41" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Z41" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AA41" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AB41" t="s">
         <v>68</v>
       </c>
       <c r="AC41" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AD41" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AE41" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D42" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E42" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F42" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G42" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
@@ -6374,37 +6413,37 @@
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>487</v>
       </c>
       <c r="N42" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="O42" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>488</v>
       </c>
       <c r="Q42" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="R42" t="s">
+        <v>49</v>
+      </c>
+      <c r="S42" t="s">
         <v>48</v>
       </c>
-      <c r="S42" t="s">
-        <v>49</v>
-      </c>
       <c r="T42" t="s">
         <v>49</v>
       </c>
       <c r="U42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V42" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="W42" t="s">
         <v>51</v>
@@ -6413,22 +6452,22 @@
         <v>498</v>
       </c>
       <c r="Y42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z42" t="s">
         <v>499</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>500</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC42" t="s">
         <v>501</v>
       </c>
-      <c r="AB42" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>502</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>68</v>
       </c>
       <c r="AE42" t="s">
         <v>503</v>
@@ -6442,19 +6481,19 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="D43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E43" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F43" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="G43" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="H43" t="s">
         <v>83</v>
@@ -6469,7 +6508,7 @@
         <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="M43" t="s">
         <v>43</v>
@@ -6478,7 +6517,7 @@
         <v>44</v>
       </c>
       <c r="O43" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P43" t="s">
         <v>46</v>
@@ -6499,60 +6538,60 @@
         <v>48</v>
       </c>
       <c r="V43" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="W43" t="s">
         <v>51</v>
       </c>
       <c r="X43" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Y43" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Z43" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AA43" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AB43" t="s">
         <v>92</v>
       </c>
       <c r="AC43" t="s">
-        <v>63</v>
+        <v>516</v>
       </c>
       <c r="AD43" t="s">
         <v>68</v>
       </c>
       <c r="AE43" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="E44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F44" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G44" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
         <v>39</v>
@@ -6564,25 +6603,25 @@
         <v>41</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>510</v>
       </c>
       <c r="M44" t="s">
-        <v>515</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="O44" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="P44" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="Q44" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="R44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
         <v>49</v>
@@ -6594,60 +6633,60 @@
         <v>48</v>
       </c>
       <c r="V44" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="W44" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="X44" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Y44" t="s">
-        <v>136</v>
+        <v>521</v>
       </c>
       <c r="Z44" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="AA44" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AB44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD44" t="s">
         <v>68</v>
       </c>
-      <c r="AC44" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>330</v>
-      </c>
       <c r="AE44" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D45" t="s">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F45" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G45" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
         <v>39</v>
@@ -6659,61 +6698,61 @@
         <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>527</v>
+        <v>136</v>
       </c>
       <c r="M45" t="s">
-        <v>312</v>
+        <v>529</v>
       </c>
       <c r="N45" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="O45" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>528</v>
+        <v>140</v>
       </c>
       <c r="Q45" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="R45" t="s">
+        <v>49</v>
+      </c>
+      <c r="S45" t="s">
+        <v>49</v>
+      </c>
+      <c r="T45" t="s">
+        <v>49</v>
+      </c>
+      <c r="U45" t="s">
         <v>48</v>
       </c>
-      <c r="S45" t="s">
-        <v>49</v>
-      </c>
-      <c r="T45" t="s">
-        <v>48</v>
-      </c>
-      <c r="U45" t="s">
-        <v>49</v>
-      </c>
       <c r="V45" t="s">
-        <v>217</v>
+        <v>530</v>
       </c>
       <c r="W45" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="X45" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Y45" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="Z45" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AA45" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AB45" t="s">
         <v>68</v>
       </c>
       <c r="AC45" t="s">
-        <v>532</v>
+        <v>217</v>
       </c>
       <c r="AD45" t="s">
-        <v>533</v>
+        <v>345</v>
       </c>
       <c r="AE45" t="s">
         <v>534</v>
@@ -6727,19 +6766,19 @@
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="D46" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E46" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F46" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G46" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="H46" t="s">
         <v>83</v>
@@ -6754,19 +6793,19 @@
         <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="M46" t="s">
-        <v>537</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s">
         <v>86</v>
       </c>
       <c r="O46" t="s">
-        <v>538</v>
+        <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="Q46" t="s">
         <v>47</v>
@@ -6784,57 +6823,57 @@
         <v>49</v>
       </c>
       <c r="V46" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="W46" t="s">
         <v>90</v>
       </c>
       <c r="X46" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Y46" t="s">
-        <v>540</v>
+        <v>66</v>
       </c>
       <c r="Z46" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AA46" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AB46" t="s">
         <v>68</v>
       </c>
       <c r="AC46" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AD46" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AE46" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="D47" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E47" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F47" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G47" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="H47" t="s">
         <v>83</v>
@@ -6849,19 +6888,19 @@
         <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="M47" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="N47" t="s">
         <v>86</v>
       </c>
       <c r="O47" t="s">
-        <v>104</v>
+        <v>552</v>
       </c>
       <c r="P47" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="Q47" t="s">
         <v>47</v>
@@ -6879,60 +6918,60 @@
         <v>49</v>
       </c>
       <c r="V47" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="W47" t="s">
         <v>90</v>
       </c>
       <c r="X47" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="Y47" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Z47" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AA47" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AB47" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AC47" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AD47" t="s">
-        <v>136</v>
+        <v>558</v>
       </c>
       <c r="AE47" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="E48" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F48" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="G48" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="H48" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
@@ -6944,19 +6983,19 @@
         <v>41</v>
       </c>
       <c r="L48" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="M48" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="O48" t="s">
-        <v>561</v>
+        <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>313</v>
+        <v>542</v>
       </c>
       <c r="Q48" t="s">
         <v>47</v>
@@ -6968,45 +7007,45 @@
         <v>49</v>
       </c>
       <c r="T48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V48" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="W48" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="X48" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Y48" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z48" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA48" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AB48" t="s">
-        <v>566</v>
+        <v>56</v>
       </c>
       <c r="AC48" t="s">
-        <v>68</v>
+        <v>567</v>
       </c>
       <c r="AD48" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="AE48" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -7015,16 +7054,16 @@
         <v>569</v>
       </c>
       <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" t="s">
         <v>570</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>571</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>572</v>
-      </c>
-      <c r="G49" t="s">
-        <v>573</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
@@ -7039,7 +7078,7 @@
         <v>41</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
+        <v>573</v>
       </c>
       <c r="M49" t="s">
         <v>574</v>
@@ -7048,19 +7087,19 @@
         <v>44</v>
       </c>
       <c r="O49" t="s">
-        <v>215</v>
+        <v>575</v>
       </c>
       <c r="P49" t="s">
-        <v>575</v>
+        <v>328</v>
       </c>
       <c r="Q49" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="R49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T49" t="s">
         <v>49</v>
@@ -7069,10 +7108,10 @@
         <v>48</v>
       </c>
       <c r="V49" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="X49" t="s">
         <v>576</v>
@@ -7107,19 +7146,19 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="D50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E50" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="F50" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="G50" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="H50" t="s">
         <v>38</v>
@@ -7134,22 +7173,22 @@
         <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M50" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="N50" t="s">
         <v>44</v>
       </c>
       <c r="O50" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q50" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="R50" t="s">
         <v>49</v>
@@ -7170,19 +7209,19 @@
         <v>51</v>
       </c>
       <c r="X50" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="Y50" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="Z50" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="AA50" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="AB50" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="AC50" t="s">
         <v>68</v>
@@ -7191,30 +7230,30 @@
         <v>68</v>
       </c>
       <c r="AE50" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>597</v>
       </c>
       <c r="E51" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F51" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G51" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="H51" t="s">
         <v>38</v>
@@ -7229,87 +7268,87 @@
         <v>41</v>
       </c>
       <c r="L51" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M51" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="N51" t="s">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="O51" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="Q51" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="R51" t="s">
         <v>49</v>
       </c>
       <c r="S51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T51" t="s">
         <v>49</v>
       </c>
       <c r="U51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V51" t="s">
+        <v>50</v>
+      </c>
+      <c r="W51" t="s">
+        <v>51</v>
+      </c>
+      <c r="X51" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB51" t="s">
         <v>594</v>
       </c>
-      <c r="W51" t="s">
-        <v>90</v>
-      </c>
-      <c r="X51" t="s">
-        <v>595</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>579</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB51" t="s">
+      <c r="AC51" t="s">
         <v>68</v>
       </c>
-      <c r="AC51" t="s">
-        <v>598</v>
-      </c>
       <c r="AD51" t="s">
-        <v>599</v>
+        <v>68</v>
       </c>
       <c r="AE51" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="E52" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="F52" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="G52" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="H52" t="s">
         <v>38</v>
@@ -7324,22 +7363,22 @@
         <v>41</v>
       </c>
       <c r="L52" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="N52" t="s">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="O52" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="Q52" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="R52" t="s">
         <v>49</v>
@@ -7354,60 +7393,60 @@
         <v>49</v>
       </c>
       <c r="V52" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="W52" t="s">
         <v>90</v>
       </c>
       <c r="X52" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="Y52" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="Z52" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AA52" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AB52" t="s">
         <v>68</v>
       </c>
       <c r="AC52" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="AD52" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="AE52" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F53" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G53" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="H53" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s">
         <v>39</v>
@@ -7419,28 +7458,28 @@
         <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>613</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="N53" t="s">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="O53" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="Q53" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="R53" t="s">
         <v>49</v>
       </c>
       <c r="S53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T53" t="s">
         <v>49</v>
@@ -7449,7 +7488,7 @@
         <v>49</v>
       </c>
       <c r="V53" t="s">
-        <v>89</v>
+        <v>608</v>
       </c>
       <c r="W53" t="s">
         <v>90</v>
@@ -7458,51 +7497,51 @@
         <v>616</v>
       </c>
       <c r="Y53" t="s">
-        <v>66</v>
+        <v>617</v>
       </c>
       <c r="Z53" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AA53" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB53" t="s">
         <v>68</v>
       </c>
       <c r="AC53" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD53" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE53" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D54" t="s">
         <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F54" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G54" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
@@ -7514,87 +7553,87 @@
         <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M54" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N54" t="s">
-        <v>628</v>
+        <v>120</v>
       </c>
       <c r="O54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" t="s">
         <v>629</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
+        <v>247</v>
+      </c>
+      <c r="R54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S54" t="s">
+        <v>48</v>
+      </c>
+      <c r="T54" t="s">
+        <v>49</v>
+      </c>
+      <c r="U54" t="s">
+        <v>49</v>
+      </c>
+      <c r="V54" t="s">
+        <v>89</v>
+      </c>
+      <c r="W54" t="s">
+        <v>90</v>
+      </c>
+      <c r="X54" t="s">
         <v>630</v>
       </c>
-      <c r="Q54" t="s">
-        <v>47</v>
-      </c>
-      <c r="R54" t="s">
-        <v>48</v>
-      </c>
-      <c r="S54" t="s">
-        <v>49</v>
-      </c>
-      <c r="T54" t="s">
-        <v>49</v>
-      </c>
-      <c r="U54" t="s">
-        <v>48</v>
-      </c>
-      <c r="V54" t="s">
-        <v>79</v>
-      </c>
-      <c r="W54" t="s">
-        <v>232</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z54" t="s">
         <v>631</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="AA54" t="s">
         <v>632</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AB54" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC54" t="s">
         <v>633</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AD54" t="s">
         <v>634</v>
       </c>
-      <c r="AB54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC54" t="s">
+      <c r="AE54" t="s">
         <v>635</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>636</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
       </c>
       <c r="C55" t="s">
+        <v>636</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" t="s">
+        <v>637</v>
+      </c>
+      <c r="F55" t="s">
         <v>638</v>
       </c>
-      <c r="D55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>639</v>
-      </c>
-      <c r="F55" t="s">
-        <v>640</v>
-      </c>
-      <c r="G55" t="s">
-        <v>641</v>
       </c>
       <c r="H55" t="s">
         <v>83</v>
@@ -7609,25 +7648,25 @@
         <v>41</v>
       </c>
       <c r="L55" t="s">
+        <v>640</v>
+      </c>
+      <c r="M55" t="s">
+        <v>641</v>
+      </c>
+      <c r="N55" t="s">
         <v>642</v>
       </c>
-      <c r="M55" t="s">
-        <v>43</v>
-      </c>
-      <c r="N55" t="s">
-        <v>146</v>
-      </c>
       <c r="O55" t="s">
-        <v>426</v>
+        <v>643</v>
       </c>
       <c r="P55" t="s">
-        <v>46</v>
+        <v>644</v>
       </c>
       <c r="Q55" t="s">
         <v>47</v>
       </c>
       <c r="R55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S55" t="s">
         <v>49</v>
@@ -7636,13 +7675,13 @@
         <v>49</v>
       </c>
       <c r="U55" t="s">
-        <v>643</v>
+        <v>48</v>
       </c>
       <c r="V55" t="s">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X55" t="s">
         <v>645</v>
@@ -7657,42 +7696,42 @@
         <v>648</v>
       </c>
       <c r="AB55" t="s">
-        <v>636</v>
+        <v>56</v>
       </c>
       <c r="AC55" t="s">
-        <v>68</v>
+        <v>649</v>
       </c>
       <c r="AD55" t="s">
-        <v>68</v>
+        <v>650</v>
       </c>
       <c r="AE55" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D56" t="s">
         <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F56" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G56" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H56" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
         <v>39</v>
@@ -7704,19 +7743,19 @@
         <v>41</v>
       </c>
       <c r="L56" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M56" t="s">
-        <v>655</v>
+        <v>43</v>
       </c>
       <c r="N56" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="O56" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="P56" t="s">
-        <v>656</v>
+        <v>46</v>
       </c>
       <c r="Q56" t="s">
         <v>47</v>
@@ -7725,66 +7764,66 @@
         <v>49</v>
       </c>
       <c r="S56" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="T56" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="U56" t="s">
-        <v>79</v>
+        <v>657</v>
       </c>
       <c r="V56" t="s">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="W56" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="X56" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Y56" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="Z56" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AA56" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AB56" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC56" t="s">
         <v>68</v>
       </c>
-      <c r="AC56" t="s">
-        <v>661</v>
-      </c>
       <c r="AD56" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="AE56" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D57" t="s">
         <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F57" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G57" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H57" t="s">
         <v>38</v>
@@ -7799,25 +7838,25 @@
         <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>668</v>
       </c>
       <c r="M57" t="s">
-        <v>367</v>
+        <v>669</v>
       </c>
       <c r="N57" t="s">
-        <v>667</v>
+        <v>44</v>
       </c>
       <c r="O57" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>369</v>
+        <v>670</v>
       </c>
       <c r="Q57" t="s">
         <v>47</v>
       </c>
       <c r="R57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S57" t="s">
         <v>79</v>
@@ -7832,54 +7871,54 @@
         <v>79</v>
       </c>
       <c r="W57" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="X57" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Y57" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Z57" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AA57" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AB57" t="s">
-        <v>672</v>
+        <v>68</v>
       </c>
       <c r="AC57" t="s">
-        <v>68</v>
+        <v>675</v>
       </c>
       <c r="AD57" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AE57" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D58" t="s">
         <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F58" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G58" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
@@ -7894,64 +7933,159 @@
         <v>41</v>
       </c>
       <c r="L58" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="M58" t="s">
-        <v>678</v>
+        <v>382</v>
       </c>
       <c r="N58" t="s">
-        <v>86</v>
+        <v>681</v>
       </c>
       <c r="O58" t="s">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>680</v>
+        <v>384</v>
       </c>
       <c r="Q58" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="R58" t="s">
         <v>48</v>
       </c>
       <c r="S58" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="T58" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="V58" t="s">
-        <v>681</v>
+        <v>79</v>
       </c>
       <c r="W58" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="X58" t="s">
         <v>682</v>
       </c>
       <c r="Y58" t="s">
-        <v>58</v>
+        <v>683</v>
       </c>
       <c r="Z58" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AA58" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AB58" t="s">
+        <v>686</v>
+      </c>
+      <c r="AC58" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" t="s">
-        <v>685</v>
-      </c>
       <c r="AD58" t="s">
-        <v>686</v>
+        <v>68</v>
       </c>
       <c r="AE58" t="s">
         <v>687</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>688</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>688</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>689</v>
+      </c>
+      <c r="F59" t="s">
+        <v>690</v>
+      </c>
+      <c r="G59" t="s">
+        <v>691</v>
+      </c>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" t="s">
+        <v>244</v>
+      </c>
+      <c r="M59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N59" t="s">
+        <v>86</v>
+      </c>
+      <c r="O59" t="s">
+        <v>693</v>
+      </c>
+      <c r="P59" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>123</v>
+      </c>
+      <c r="R59" t="s">
+        <v>48</v>
+      </c>
+      <c r="S59" t="s">
+        <v>49</v>
+      </c>
+      <c r="T59" t="s">
+        <v>49</v>
+      </c>
+      <c r="U59" t="s">
+        <v>49</v>
+      </c>
+      <c r="V59" t="s">
+        <v>694</v>
+      </c>
+      <c r="W59" t="s">
+        <v>90</v>
+      </c>
+      <c r="X59" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>698</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>699</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/website/datavzrd/scPerturb_vzrd_v2/data.xlsx
+++ b/website/datavzrd/scPerturb_vzrd_v2/data.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peidli/work/projects/scPerturb/website/datavzrd/scPerturb_vzrd_v2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE9A6D-48F3-B146-A941-47C8C65C7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="dataset_info" sheetId="1" r:id="rId3"/>
+    <sheet name="dataset_info" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="699">
   <si>
     <t>Full index</t>
   </si>
@@ -131,9 +142,6 @@
     <t>RNA</t>
   </si>
   <si>
-    <t>7041849</t>
-  </si>
-  <si>
     <t>h5ad</t>
   </si>
   <si>
@@ -246,9 +254,6 @@
   </si>
   <si>
     <t>AissaBenevolenskaya2021</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Single-cell transcriptional changes associated with drug tolerance and response to combination therapies in cancer</t>
@@ -2117,10 +2122,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2148,15 +2153,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2294,7 +2306,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -2305,27 +2316,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -2347,7 +2362,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2405,7 +2420,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -2418,13 +2433,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -2436,54 +2450,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="31" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2606,76 +2596,76 @@
       <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
       <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+    </row>
+    <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2684,7 +2674,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -2701,76 +2691,76 @@
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
       <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="T3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
-        <v>51</v>
-      </c>
       <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" t="s">
+    </row>
+    <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -2779,7 +2769,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -2796,189 +2786,183 @@
       <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
       <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>50</v>
       </c>
-      <c r="W4" t="s">
-        <v>51</v>
-      </c>
       <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
         <v>72</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>73</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" t="s">
         <v>75</v>
       </c>
-      <c r="AB4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" t="s">
         <v>76</v>
       </c>
-      <c r="AD4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE4" t="s">
+    </row>
+    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>81</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" t="s">
         <v>84</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>88</v>
       </c>
-      <c r="T5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>89</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>90</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>91</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>92</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>94</v>
       </c>
-      <c r="AB5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>95</v>
       </c>
-      <c r="AD5" t="s">
+    </row>
+    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>96</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>101</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -2986,284 +2970,272 @@
       <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
         <v>102</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" t="s">
         <v>103</v>
       </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="W6" t="s">
         <v>104</v>
       </c>
-      <c r="P6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>105</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" t="s">
         <v>106</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>107</v>
       </c>
-      <c r="Y6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC6" t="s">
         <v>108</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>109</v>
       </c>
-      <c r="AB6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>110</v>
       </c>
-      <c r="AD6" t="s">
+    </row>
+    <row r="7" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>111</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
         <v>113</v>
       </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>115</v>
-      </c>
-      <c r="G7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" t="s">
-        <v>117</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s">
         <v>118</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>119</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>120</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>121</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" t="s">
         <v>122</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="X7" t="s">
         <v>123</v>
       </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>124</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>125</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>126</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" t="s">
         <v>127</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>128</v>
       </c>
-      <c r="AB7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>129</v>
       </c>
-      <c r="AD7" t="s">
+    </row>
+    <row r="8" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>130</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>133</v>
       </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" t="s">
-        <v>135</v>
-      </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
       <c r="L8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" t="s">
         <v>136</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>137</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>138</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" t="s">
         <v>139</v>
       </c>
-      <c r="P8" t="s">
+      <c r="W8" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>141</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>142</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>143</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE8" t="s">
         <v>145</v>
       </c>
-      <c r="AA8" t="s">
+    </row>
+    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>146</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
         <v>148</v>
       </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" t="s">
-        <v>150</v>
-      </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
@@ -3271,379 +3243,349 @@
       <c r="I9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K9" t="s">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
       <c r="L9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" t="s">
         <v>151</v>
       </c>
-      <c r="M9" t="s">
+      <c r="W9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
         <v>152</v>
       </c>
-      <c r="N9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P9" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="Y9" t="s">
         <v>153</v>
       </c>
-      <c r="W9" t="s">
-        <v>51</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>154</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>155</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC9" t="s">
         <v>156</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>157</v>
       </c>
-      <c r="AB9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>158</v>
       </c>
-      <c r="AD9" t="s">
+    </row>
+    <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>159</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
         <v>161</v>
       </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>162</v>
       </c>
-      <c r="F10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" t="s">
-        <v>164</v>
-      </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>41</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" t="s">
-        <v>43</v>
-      </c>
       <c r="N10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" t="s">
         <v>165</v>
       </c>
-      <c r="O10" t="s">
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" t="s">
         <v>166</v>
       </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="W10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" t="s">
         <v>167</v>
       </c>
-      <c r="T10" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="Y10" t="s">
         <v>168</v>
       </c>
-      <c r="W10" t="s">
-        <v>142</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>169</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>170</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE10" t="s">
         <v>171</v>
       </c>
-      <c r="AA10" t="s">
+    </row>
+    <row r="11" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>172</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
         <v>176</v>
-      </c>
-      <c r="F11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" t="s">
         <v>179</v>
       </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O11" t="s">
         <v>180</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>181</v>
       </c>
-      <c r="N11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
         <v>182</v>
       </c>
-      <c r="P11" t="s">
+      <c r="W11" t="s">
+        <v>88</v>
+      </c>
+      <c r="X11" t="s">
         <v>183</v>
       </c>
-      <c r="Q11" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" t="s">
-        <v>49</v>
-      </c>
-      <c r="U11" t="s">
-        <v>49</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="Y11" t="s">
         <v>184</v>
       </c>
-      <c r="W11" t="s">
-        <v>90</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>185</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>186</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC11" t="s">
         <v>187</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>188</v>
       </c>
-      <c r="AB11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>189</v>
       </c>
-      <c r="AD11" t="s">
+    </row>
+    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>190</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
         <v>175</v>
       </c>
-      <c r="D12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>176</v>
-      </c>
-      <c r="F12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" t="s">
-        <v>178</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>194</v>
-      </c>
-      <c r="J12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
       <c r="L12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" t="s">
         <v>180</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>181</v>
       </c>
-      <c r="N12" t="s">
-        <v>165</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" t="s">
         <v>182</v>
       </c>
-      <c r="P12" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>123</v>
-      </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" t="s">
-        <v>184</v>
-      </c>
       <c r="W12" t="s">
-        <v>90</v>
-      </c>
-      <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
         <v>196</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>197</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" t="s">
-        <v>200</v>
       </c>
       <c r="H13" t="s">
         <v>38</v>
@@ -3651,94 +3593,94 @@
       <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K13" t="s">
         <v>40</v>
       </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
       <c r="O13" t="s">
+        <v>199</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" t="s">
+        <v>200</v>
+      </c>
+      <c r="W13" t="s">
         <v>201</v>
       </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" t="s">
-        <v>48</v>
-      </c>
-      <c r="S13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U13" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>202</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>203</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>204</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" t="s">
         <v>205</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" t="s">
         <v>206</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE13" t="s">
         <v>207</v>
       </c>
-      <c r="AB13" t="s">
+    </row>
+    <row r="14" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>208</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>210</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" t="s">
         <v>196</v>
       </c>
-      <c r="D14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="s">
         <v>198</v>
-      </c>
-      <c r="F14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" t="s">
-        <v>200</v>
       </c>
       <c r="H14" t="s">
         <v>38</v>
@@ -3746,94 +3688,94 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K14" t="s">
         <v>40</v>
       </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="N14" t="s">
-        <v>44</v>
-      </c>
       <c r="O14" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" t="s">
+        <v>200</v>
+      </c>
+      <c r="W14" t="s">
         <v>201</v>
       </c>
-      <c r="P14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" t="s">
-        <v>49</v>
-      </c>
-      <c r="T14" t="s">
-        <v>49</v>
-      </c>
-      <c r="U14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14" t="s">
-        <v>202</v>
-      </c>
-      <c r="W14" t="s">
-        <v>203</v>
-      </c>
       <c r="X14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z14" t="s">
         <v>212</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>213</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>214</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE14" t="s">
         <v>215</v>
       </c>
-      <c r="AB14" t="s">
+    </row>
+    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>216</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" t="s">
         <v>196</v>
       </c>
-      <c r="D15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" t="s">
         <v>198</v>
-      </c>
-      <c r="F15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" t="s">
-        <v>200</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
@@ -3841,189 +3783,186 @@
       <c r="I15" t="s">
         <v>39</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K15" t="s">
         <v>40</v>
       </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="N15" t="s">
-        <v>44</v>
-      </c>
       <c r="O15" t="s">
+        <v>199</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" t="s">
+        <v>200</v>
+      </c>
+      <c r="W15" t="s">
         <v>201</v>
       </c>
-      <c r="P15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" t="s">
-        <v>49</v>
-      </c>
-      <c r="U15" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" t="s">
-        <v>202</v>
-      </c>
-      <c r="W15" t="s">
-        <v>203</v>
-      </c>
       <c r="X15" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z15" t="s">
         <v>220</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>221</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AB15" t="s">
         <v>222</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE15" t="s">
         <v>223</v>
       </c>
-      <c r="AB15" t="s">
+    </row>
+    <row r="16" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>224</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" t="s">
         <v>226</v>
       </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>227</v>
       </c>
-      <c r="F16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" t="s">
-        <v>229</v>
-      </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K16" t="s">
         <v>40</v>
       </c>
-      <c r="K16" t="s">
-        <v>41</v>
-      </c>
       <c r="L16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" t="s">
         <v>230</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" t="s">
         <v>231</v>
       </c>
-      <c r="N16" t="s">
-        <v>86</v>
-      </c>
-      <c r="O16" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="W16" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" t="s">
         <v>232</v>
       </c>
-      <c r="Q16" t="s">
-        <v>123</v>
-      </c>
-      <c r="R16" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="Y16" t="s">
         <v>233</v>
       </c>
-      <c r="W16" t="s">
-        <v>90</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>234</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AA16" t="s">
         <v>235</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>236</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
         <v>239</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>240</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>241</v>
-      </c>
-      <c r="F17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" t="s">
-        <v>243</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
@@ -4031,94 +3970,76 @@
       <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K17" t="s">
         <v>40</v>
       </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
       <c r="L17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" t="s">
+        <v>243</v>
+      </c>
+      <c r="N17" t="s">
         <v>244</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
         <v>245</v>
       </c>
-      <c r="N17" t="s">
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" t="s">
+        <v>122</v>
+      </c>
+      <c r="X17" t="s">
         <v>246</v>
       </c>
-      <c r="O17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="Y17" t="s">
         <v>247</v>
       </c>
-      <c r="R17" t="s">
-        <v>49</v>
-      </c>
-      <c r="S17" t="s">
-        <v>79</v>
-      </c>
-      <c r="T17" t="s">
-        <v>79</v>
-      </c>
-      <c r="U17" t="s">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s">
-        <v>124</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="Z17" t="s">
         <v>248</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AA17" t="s">
         <v>249</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC17" t="s">
         <v>250</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AD17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE17" t="s">
         <v>251</v>
       </c>
-      <c r="AB17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC17" t="s">
+    </row>
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>252</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>254</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" t="s">
         <v>239</v>
       </c>
-      <c r="D18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" t="s">
         <v>241</v>
-      </c>
-      <c r="F18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" t="s">
-        <v>243</v>
       </c>
       <c r="H18" t="s">
         <v>38</v>
@@ -4126,664 +4047,580 @@
       <c r="I18" t="s">
         <v>39</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K18" t="s">
         <v>40</v>
       </c>
-      <c r="K18" t="s">
-        <v>41</v>
-      </c>
       <c r="L18" t="s">
+        <v>242</v>
+      </c>
+      <c r="M18" t="s">
+        <v>243</v>
+      </c>
+      <c r="N18" t="s">
         <v>244</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
         <v>245</v>
       </c>
-      <c r="N18" t="s">
-        <v>246</v>
-      </c>
-      <c r="O18" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>247</v>
-      </c>
       <c r="R18" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" t="s">
-        <v>79</v>
-      </c>
-      <c r="U18" t="s">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="W18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X18" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z18" t="s">
         <v>256</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" t="s">
         <v>257</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AB18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s">
         <v>258</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
         <v>259</v>
       </c>
-      <c r="AB18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>260</v>
       </c>
-      <c r="AD18" t="s">
+    </row>
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>261</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>263</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
         <v>264</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>265</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>266</v>
       </c>
-      <c r="F19" t="s">
-        <v>267</v>
-      </c>
-      <c r="G19" t="s">
-        <v>268</v>
-      </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K19" t="s">
         <v>40</v>
       </c>
-      <c r="K19" t="s">
-        <v>41</v>
-      </c>
       <c r="L19" t="s">
+        <v>267</v>
+      </c>
+      <c r="M19" t="s">
+        <v>268</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s">
         <v>269</v>
       </c>
-      <c r="M19" t="s">
+      <c r="Q19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X19" t="s">
         <v>270</v>
       </c>
-      <c r="N19" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Y19" t="s">
         <v>271</v>
       </c>
-      <c r="Q19" t="s">
-        <v>123</v>
-      </c>
-      <c r="R19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" t="s">
-        <v>48</v>
-      </c>
-      <c r="T19" t="s">
-        <v>49</v>
-      </c>
-      <c r="U19" t="s">
-        <v>49</v>
-      </c>
-      <c r="V19" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19" t="s">
-        <v>124</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
         <v>272</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>273</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AB19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC19" t="s">
         <v>274</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AD19" t="s">
         <v>275</v>
       </c>
-      <c r="AB19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>276</v>
       </c>
-      <c r="AD19" t="s">
+    </row>
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>277</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>279</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" t="s">
         <v>264</v>
       </c>
-      <c r="D20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" t="s">
         <v>266</v>
       </c>
-      <c r="F20" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" t="s">
-        <v>268</v>
-      </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K20" t="s">
         <v>40</v>
       </c>
-      <c r="K20" t="s">
-        <v>41</v>
-      </c>
       <c r="L20" t="s">
+        <v>267</v>
+      </c>
+      <c r="M20" t="s">
+        <v>268</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="s">
         <v>269</v>
       </c>
-      <c r="M20" t="s">
-        <v>270</v>
-      </c>
-      <c r="N20" t="s">
-        <v>165</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>121</v>
       </c>
-      <c r="P20" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>123</v>
-      </c>
       <c r="R20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U20" t="s">
-        <v>49</v>
-      </c>
-      <c r="V20" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="W20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X20" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC20" t="s">
         <v>281</v>
       </c>
-      <c r="Y20" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="AD20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE20" t="s">
         <v>282</v>
       </c>
-      <c r="AA20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC20" t="s">
+    </row>
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>283</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" t="s">
         <v>264</v>
       </c>
-      <c r="D21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" t="s">
         <v>266</v>
       </c>
-      <c r="F21" t="s">
-        <v>267</v>
-      </c>
-      <c r="G21" t="s">
-        <v>268</v>
-      </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K21" t="s">
         <v>40</v>
       </c>
-      <c r="K21" t="s">
-        <v>41</v>
-      </c>
       <c r="L21" t="s">
+        <v>267</v>
+      </c>
+      <c r="M21" t="s">
+        <v>268</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>284</v>
+      </c>
+      <c r="P21" t="s">
         <v>269</v>
       </c>
-      <c r="M21" t="s">
-        <v>270</v>
-      </c>
-      <c r="N21" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" t="s">
+        <v>122</v>
+      </c>
+      <c r="X21" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y21" t="s">
         <v>286</v>
       </c>
-      <c r="P21" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>123</v>
-      </c>
-      <c r="R21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" t="s">
-        <v>49</v>
-      </c>
-      <c r="T21" t="s">
-        <v>49</v>
-      </c>
-      <c r="U21" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" t="s">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s">
-        <v>124</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>287</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AA21" t="s">
         <v>288</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AB21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC21" t="s">
         <v>289</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AD21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE21" t="s">
         <v>290</v>
       </c>
-      <c r="AB21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC21" t="s">
+    </row>
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>291</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>293</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" t="s">
         <v>293</v>
       </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>294</v>
       </c>
-      <c r="F22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G22" t="s">
-        <v>296</v>
-      </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
         <v>39</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K22" t="s">
         <v>40</v>
       </c>
-      <c r="K22" t="s">
-        <v>41</v>
-      </c>
       <c r="L22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s">
+        <v>295</v>
+      </c>
+      <c r="N22" t="s">
+        <v>296</v>
+      </c>
+      <c r="O22" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" t="s">
         <v>297</v>
       </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
         <v>298</v>
       </c>
-      <c r="O22" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S22" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" t="s">
+        <v>122</v>
+      </c>
+      <c r="X22" t="s">
         <v>299</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Y22" t="s">
         <v>300</v>
       </c>
-      <c r="R22" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" t="s">
-        <v>49</v>
-      </c>
-      <c r="U22" t="s">
-        <v>48</v>
-      </c>
-      <c r="V22" t="s">
-        <v>79</v>
-      </c>
-      <c r="W22" t="s">
-        <v>124</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>301</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>302</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AB22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC22" t="s">
         <v>303</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
         <v>304</v>
       </c>
-      <c r="AB22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>305</v>
       </c>
-      <c r="AD22" t="s">
+    </row>
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>306</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>308</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" t="s">
         <v>309</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>310</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>311</v>
-      </c>
-      <c r="F23" t="s">
-        <v>312</v>
-      </c>
-      <c r="G23" t="s">
-        <v>313</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
       </c>
       <c r="I23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" t="s">
         <v>314</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>315</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>316</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" t="s">
         <v>317</v>
       </c>
-      <c r="M23" t="s">
+      <c r="W23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>318</v>
-      </c>
-      <c r="N23" t="s">
-        <v>165</v>
-      </c>
-      <c r="O23" t="s">
-        <v>201</v>
-      </c>
-      <c r="P23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" t="s">
-        <v>49</v>
-      </c>
-      <c r="T23" t="s">
-        <v>49</v>
-      </c>
-      <c r="U23" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" t="s">
-        <v>319</v>
-      </c>
-      <c r="W23" t="s">
-        <v>106</v>
-      </c>
-      <c r="X23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>320</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" t="s">
         <v>309</v>
       </c>
-      <c r="D24" t="s">
-        <v>321</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" t="s">
         <v>311</v>
-      </c>
-      <c r="F24" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" t="s">
-        <v>313</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
       </c>
       <c r="I24" t="s">
+        <v>312</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K24" t="s">
         <v>314</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>315</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>316</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>199</v>
+      </c>
+      <c r="P24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" t="s">
         <v>317</v>
       </c>
-      <c r="M24" t="s">
-        <v>318</v>
-      </c>
-      <c r="N24" t="s">
-        <v>165</v>
-      </c>
-      <c r="O24" t="s">
-        <v>201</v>
-      </c>
-      <c r="P24" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S24" t="s">
-        <v>49</v>
-      </c>
-      <c r="T24" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" t="s">
-        <v>319</v>
-      </c>
       <c r="W24" t="s">
-        <v>106</v>
-      </c>
-      <c r="X24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" t="s">
         <v>322</v>
       </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>323</v>
-      </c>
-      <c r="F25" t="s">
-        <v>324</v>
-      </c>
-      <c r="G25" t="s">
-        <v>325</v>
       </c>
       <c r="H25" t="s">
         <v>38</v>
@@ -4791,94 +4628,88 @@
       <c r="I25" t="s">
         <v>39</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K25" t="s">
         <v>40</v>
       </c>
-      <c r="K25" t="s">
-        <v>41</v>
-      </c>
       <c r="L25" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" t="s">
+        <v>325</v>
+      </c>
+      <c r="N25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s">
         <v>326</v>
       </c>
-      <c r="M25" t="s">
+      <c r="Q25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" t="s">
         <v>327</v>
       </c>
-      <c r="N25" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" t="s">
-        <v>104</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="Y25" t="s">
         <v>328</v>
       </c>
-      <c r="Q25" t="s">
-        <v>47</v>
-      </c>
-      <c r="R25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S25" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" t="s">
-        <v>49</v>
-      </c>
-      <c r="U25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V25" t="s">
-        <v>79</v>
-      </c>
-      <c r="W25" t="s">
-        <v>124</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="Z25" t="s">
         <v>329</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AA25" t="s">
         <v>330</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AB25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC25" t="s">
         <v>331</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AD25" t="s">
         <v>332</v>
       </c>
-      <c r="AB25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>333</v>
       </c>
-      <c r="AD25" t="s">
+    </row>
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>334</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>336</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" t="s">
         <v>336</v>
       </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>337</v>
-      </c>
-      <c r="F26" t="s">
-        <v>338</v>
-      </c>
-      <c r="G26" t="s">
-        <v>339</v>
       </c>
       <c r="H26" t="s">
         <v>38</v>
@@ -4886,189 +4717,156 @@
       <c r="I26" t="s">
         <v>39</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K26" t="s">
         <v>40</v>
       </c>
-      <c r="K26" t="s">
-        <v>41</v>
-      </c>
       <c r="L26" t="s">
+        <v>338</v>
+      </c>
+      <c r="M26" t="s">
+        <v>339</v>
+      </c>
+      <c r="N26" t="s">
         <v>340</v>
       </c>
-      <c r="M26" t="s">
+      <c r="Q26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" t="s">
         <v>341</v>
       </c>
-      <c r="N26" t="s">
+      <c r="T26" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26" t="s">
         <v>342</v>
       </c>
-      <c r="O26" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>47</v>
-      </c>
-      <c r="R26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="Y26" t="s">
         <v>343</v>
       </c>
-      <c r="T26" t="s">
-        <v>49</v>
-      </c>
-      <c r="U26" t="s">
-        <v>49</v>
-      </c>
-      <c r="V26" t="s">
-        <v>153</v>
-      </c>
-      <c r="W26" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>344</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>345</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AB26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC26" t="s">
         <v>346</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AD26" t="s">
         <v>347</v>
       </c>
-      <c r="AB26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>348</v>
       </c>
-      <c r="AD26" t="s">
+    </row>
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>349</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>351</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
+        <v>349</v>
+      </c>
+      <c r="E27" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" t="s">
         <v>351</v>
       </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>352</v>
-      </c>
-      <c r="F27" t="s">
-        <v>353</v>
-      </c>
-      <c r="G27" t="s">
-        <v>354</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
       </c>
       <c r="I27" t="s">
+        <v>353</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>354</v>
+      </c>
+      <c r="M27" t="s">
         <v>355</v>
       </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" t="s">
         <v>356</v>
       </c>
-      <c r="M27" t="s">
+      <c r="W27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>357</v>
-      </c>
-      <c r="N27" t="s">
-        <v>165</v>
-      </c>
-      <c r="O27" t="s">
-        <v>121</v>
-      </c>
-      <c r="P27" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>123</v>
-      </c>
-      <c r="R27" t="s">
-        <v>49</v>
-      </c>
-      <c r="S27" t="s">
-        <v>49</v>
-      </c>
-      <c r="T27" t="s">
-        <v>49</v>
-      </c>
-      <c r="U27" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" t="s">
-        <v>358</v>
-      </c>
-      <c r="W27" t="s">
-        <v>51</v>
-      </c>
-      <c r="X27" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>359</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28" t="s">
         <v>360</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>361</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>362</v>
-      </c>
-      <c r="F28" t="s">
-        <v>363</v>
-      </c>
-      <c r="G28" t="s">
-        <v>364</v>
       </c>
       <c r="H28" t="s">
         <v>38</v>
@@ -5076,854 +4874,719 @@
       <c r="I28" t="s">
         <v>39</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K28" t="s">
         <v>40</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>41</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>42</v>
       </c>
-      <c r="M28" t="s">
-        <v>43</v>
-      </c>
       <c r="N28" t="s">
+        <v>363</v>
+      </c>
+      <c r="O28" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U28" t="s">
+        <v>47</v>
+      </c>
+      <c r="V28" t="s">
+        <v>364</v>
+      </c>
+      <c r="W28" t="s">
+        <v>50</v>
+      </c>
+      <c r="X28" t="s">
         <v>365</v>
       </c>
-      <c r="O28" t="s">
-        <v>201</v>
-      </c>
-      <c r="P28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>47</v>
-      </c>
-      <c r="R28" t="s">
-        <v>48</v>
-      </c>
-      <c r="S28" t="s">
-        <v>49</v>
-      </c>
-      <c r="T28" t="s">
-        <v>49</v>
-      </c>
-      <c r="U28" t="s">
-        <v>48</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="Y28" t="s">
         <v>366</v>
       </c>
-      <c r="W28" t="s">
-        <v>51</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="Z28" t="s">
         <v>367</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>368</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AB28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC28" t="s">
         <v>369</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AD28" t="s">
         <v>370</v>
       </c>
-      <c r="AB28" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
         <v>371</v>
       </c>
-      <c r="AD28" t="s">
+    </row>
+    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>372</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>374</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" t="s">
         <v>375</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>376</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>377</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>378</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" t="s">
         <v>379</v>
       </c>
-      <c r="H29" t="s">
+      <c r="M29" t="s">
         <v>380</v>
       </c>
-      <c r="I29" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29" t="s">
         <v>381</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>382</v>
       </c>
-      <c r="N29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" t="s">
+        <v>47</v>
+      </c>
+      <c r="S29" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" t="s">
         <v>383</v>
       </c>
-      <c r="P29" t="s">
+      <c r="W29" t="s">
+        <v>104</v>
+      </c>
+      <c r="X29" t="s">
         <v>384</v>
       </c>
-      <c r="Q29" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29" t="s">
-        <v>49</v>
-      </c>
-      <c r="T29" t="s">
-        <v>49</v>
-      </c>
-      <c r="U29" t="s">
-        <v>49</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="Y29" t="s">
         <v>385</v>
       </c>
-      <c r="W29" t="s">
-        <v>106</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="Z29" t="s">
         <v>386</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
         <v>387</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AB29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC29" t="s">
         <v>388</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AD29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE29" t="s">
         <v>389</v>
       </c>
-      <c r="AB29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC29" t="s">
+    </row>
+    <row r="30" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>390</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>392</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E30" t="s">
         <v>375</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" t="s">
+        <v>378</v>
+      </c>
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" t="s">
+        <v>379</v>
+      </c>
+      <c r="M30" t="s">
+        <v>380</v>
+      </c>
+      <c r="N30" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" t="s">
+        <v>48</v>
+      </c>
+      <c r="T30" t="s">
+        <v>48</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" t="s">
+        <v>383</v>
+      </c>
+      <c r="W30" t="s">
+        <v>104</v>
+      </c>
+      <c r="X30" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y30" t="s">
         <v>393</v>
       </c>
-      <c r="E30" t="s">
-        <v>377</v>
-      </c>
-      <c r="F30" t="s">
-        <v>378</v>
-      </c>
-      <c r="G30" t="s">
-        <v>379</v>
-      </c>
-      <c r="H30" t="s">
-        <v>380</v>
-      </c>
-      <c r="I30" t="s">
-        <v>179</v>
-      </c>
-      <c r="J30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" t="s">
-        <v>381</v>
-      </c>
-      <c r="M30" t="s">
-        <v>382</v>
-      </c>
-      <c r="N30" t="s">
-        <v>165</v>
-      </c>
-      <c r="O30" t="s">
-        <v>383</v>
-      </c>
-      <c r="P30" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R30" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" t="s">
-        <v>49</v>
-      </c>
-      <c r="T30" t="s">
-        <v>49</v>
-      </c>
-      <c r="U30" t="s">
-        <v>49</v>
-      </c>
-      <c r="V30" t="s">
-        <v>385</v>
-      </c>
-      <c r="W30" t="s">
-        <v>106</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="Z30" t="s">
         <v>394</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>395</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AB30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC30" t="s">
         <v>396</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AD30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE30" t="s">
         <v>397</v>
       </c>
-      <c r="AB30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC30" t="s">
+    </row>
+    <row r="31" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>398</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>400</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" t="s">
+        <v>399</v>
+      </c>
+      <c r="E31" t="s">
         <v>375</v>
       </c>
-      <c r="D31" t="s">
-        <v>401</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G31" t="s">
         <v>377</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>378</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" t="s">
         <v>379</v>
       </c>
-      <c r="H31" t="s">
+      <c r="M31" t="s">
         <v>380</v>
       </c>
-      <c r="I31" t="s">
-        <v>194</v>
-      </c>
-      <c r="J31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" t="s">
         <v>381</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>382</v>
       </c>
-      <c r="N31" t="s">
-        <v>165</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T31" t="s">
+        <v>48</v>
+      </c>
+      <c r="U31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" t="s">
         <v>383</v>
       </c>
-      <c r="P31" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>47</v>
-      </c>
-      <c r="R31" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" t="s">
-        <v>49</v>
-      </c>
-      <c r="T31" t="s">
-        <v>49</v>
-      </c>
-      <c r="U31" t="s">
-        <v>49</v>
-      </c>
-      <c r="V31" t="s">
-        <v>385</v>
-      </c>
       <c r="W31" t="s">
-        <v>106</v>
-      </c>
-      <c r="X31" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" t="s">
         <v>375</v>
       </c>
-      <c r="D32" t="s">
-        <v>403</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>376</v>
+      </c>
+      <c r="G32" t="s">
         <v>377</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>378</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" t="s">
         <v>379</v>
       </c>
-      <c r="H32" t="s">
+      <c r="M32" t="s">
         <v>380</v>
       </c>
-      <c r="I32" t="s">
-        <v>194</v>
-      </c>
-      <c r="J32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O32" t="s">
         <v>381</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="s">
         <v>382</v>
       </c>
-      <c r="N32" t="s">
-        <v>165</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" t="s">
+        <v>48</v>
+      </c>
+      <c r="U32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" t="s">
         <v>383</v>
       </c>
-      <c r="P32" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" t="s">
-        <v>49</v>
-      </c>
-      <c r="T32" t="s">
-        <v>49</v>
-      </c>
-      <c r="U32" t="s">
-        <v>49</v>
-      </c>
-      <c r="V32" t="s">
-        <v>385</v>
-      </c>
       <c r="W32" t="s">
-        <v>106</v>
-      </c>
-      <c r="X32" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
+        <v>403</v>
+      </c>
+      <c r="D33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" t="s">
         <v>405</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>406</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>407</v>
-      </c>
-      <c r="F33" t="s">
-        <v>408</v>
-      </c>
-      <c r="G33" t="s">
-        <v>409</v>
       </c>
       <c r="H33" t="s">
         <v>38</v>
       </c>
       <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
         <v>314</v>
       </c>
-      <c r="J33" t="s">
-        <v>315</v>
-      </c>
-      <c r="K33" t="s">
-        <v>316</v>
-      </c>
       <c r="L33" t="s">
+        <v>408</v>
+      </c>
+      <c r="M33" t="s">
+        <v>409</v>
+      </c>
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" t="s">
+        <v>199</v>
+      </c>
+      <c r="P33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" t="s">
+        <v>48</v>
+      </c>
+      <c r="U33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" t="s">
+        <v>87</v>
+      </c>
+      <c r="W33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>410</v>
-      </c>
-      <c r="M33" t="s">
-        <v>411</v>
-      </c>
-      <c r="N33" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" t="s">
-        <v>201</v>
-      </c>
-      <c r="P33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>47</v>
-      </c>
-      <c r="R33" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" t="s">
-        <v>49</v>
-      </c>
-      <c r="T33" t="s">
-        <v>49</v>
-      </c>
-      <c r="U33" t="s">
-        <v>49</v>
-      </c>
-      <c r="V33" t="s">
-        <v>89</v>
-      </c>
-      <c r="W33" t="s">
-        <v>90</v>
-      </c>
-      <c r="X33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>412</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
         <v>405</v>
       </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" t="s">
         <v>407</v>
-      </c>
-      <c r="F34" t="s">
-        <v>408</v>
-      </c>
-      <c r="G34" t="s">
-        <v>409</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
       </c>
       <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
         <v>314</v>
       </c>
-      <c r="J34" t="s">
-        <v>315</v>
-      </c>
-      <c r="K34" t="s">
-        <v>316</v>
-      </c>
       <c r="L34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" t="s">
         <v>46</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>47</v>
       </c>
-      <c r="R34" t="s">
-        <v>48</v>
-      </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W34" t="s">
-        <v>90</v>
-      </c>
-      <c r="X34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
+        <v>403</v>
+      </c>
+      <c r="D35" t="s">
+        <v>413</v>
+      </c>
+      <c r="E35" t="s">
         <v>405</v>
       </c>
-      <c r="D35" t="s">
-        <v>415</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>406</v>
+      </c>
+      <c r="G35" t="s">
         <v>407</v>
-      </c>
-      <c r="F35" t="s">
-        <v>408</v>
-      </c>
-      <c r="G35" t="s">
-        <v>409</v>
       </c>
       <c r="H35" t="s">
         <v>38</v>
       </c>
       <c r="I35" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K35" t="s">
         <v>314</v>
       </c>
-      <c r="J35" t="s">
-        <v>315</v>
-      </c>
-      <c r="K35" t="s">
-        <v>316</v>
-      </c>
       <c r="L35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M35" t="s">
+        <v>414</v>
+      </c>
+      <c r="N35" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" t="s">
+        <v>415</v>
+      </c>
+      <c r="P35" t="s">
         <v>416</v>
       </c>
-      <c r="N35" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" t="s">
+        <v>87</v>
+      </c>
+      <c r="W35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>417</v>
-      </c>
-      <c r="P35" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>47</v>
-      </c>
-      <c r="R35" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" t="s">
-        <v>49</v>
-      </c>
-      <c r="T35" t="s">
-        <v>49</v>
-      </c>
-      <c r="U35" t="s">
-        <v>49</v>
-      </c>
-      <c r="V35" t="s">
-        <v>89</v>
-      </c>
-      <c r="W35" t="s">
-        <v>90</v>
-      </c>
-      <c r="X35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>419</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
+        <v>418</v>
+      </c>
+      <c r="D36" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" t="s">
         <v>420</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>421</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>422</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" t="s">
         <v>423</v>
       </c>
-      <c r="G36" t="s">
+      <c r="M36" t="s">
         <v>424</v>
       </c>
-      <c r="H36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>425</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>426</v>
       </c>
-      <c r="N36" t="s">
+      <c r="Q36" t="s">
+        <v>298</v>
+      </c>
+      <c r="R36" t="s">
+        <v>47</v>
+      </c>
+      <c r="W36" t="s">
+        <v>122</v>
+      </c>
+      <c r="X36" t="s">
         <v>427</v>
       </c>
-      <c r="O36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="Y36" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z36" t="s">
         <v>428</v>
       </c>
-      <c r="Q36" t="s">
-        <v>300</v>
-      </c>
-      <c r="R36" t="s">
-        <v>48</v>
-      </c>
-      <c r="S36" t="s">
-        <v>79</v>
-      </c>
-      <c r="T36" t="s">
-        <v>79</v>
-      </c>
-      <c r="U36" t="s">
-        <v>79</v>
-      </c>
-      <c r="V36" t="s">
-        <v>79</v>
-      </c>
-      <c r="W36" t="s">
-        <v>124</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="AA36" t="s">
         <v>429</v>
       </c>
-      <c r="Y36" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z36" t="s">
+      <c r="AB36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC36" t="s">
         <v>430</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AD36" t="s">
         <v>431</v>
       </c>
-      <c r="AB36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC36" t="s">
+      <c r="AE36" t="s">
         <v>432</v>
       </c>
-      <c r="AD36" t="s">
+    </row>
+    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>433</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>435</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
+        <v>434</v>
+      </c>
+      <c r="D37" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" t="s">
         <v>436</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>437</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>438</v>
-      </c>
-      <c r="F37" t="s">
-        <v>439</v>
-      </c>
-      <c r="G37" t="s">
-        <v>440</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
@@ -5931,94 +5594,94 @@
       <c r="I37" t="s">
         <v>39</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K37" t="s">
         <v>40</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>41</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>42</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>43</v>
       </c>
-      <c r="N37" t="s">
-        <v>44</v>
-      </c>
       <c r="O37" t="s">
+        <v>439</v>
+      </c>
+      <c r="P37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" t="s">
+        <v>440</v>
+      </c>
+      <c r="W37" t="s">
         <v>441</v>
       </c>
-      <c r="P37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>47</v>
-      </c>
-      <c r="R37" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" t="s">
-        <v>49</v>
-      </c>
-      <c r="T37" t="s">
-        <v>49</v>
-      </c>
-      <c r="U37" t="s">
-        <v>49</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="X37" t="s">
         <v>442</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Y37" t="s">
         <v>443</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Z37" t="s">
         <v>444</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="AA37" t="s">
         <v>445</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AB37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC37" t="s">
         <v>446</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AD37" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE37" t="s">
         <v>447</v>
       </c>
-      <c r="AB37" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC37" t="s">
+    </row>
+    <row r="38" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>448</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>450</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
+        <v>434</v>
+      </c>
+      <c r="D38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E38" t="s">
         <v>436</v>
       </c>
-      <c r="D38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>437</v>
+      </c>
+      <c r="G38" t="s">
         <v>438</v>
-      </c>
-      <c r="F38" t="s">
-        <v>439</v>
-      </c>
-      <c r="G38" t="s">
-        <v>440</v>
       </c>
       <c r="H38" t="s">
         <v>38</v>
@@ -6026,94 +5689,94 @@
       <c r="I38" t="s">
         <v>39</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K38" t="s">
         <v>40</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>41</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>42</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>43</v>
       </c>
-      <c r="N38" t="s">
-        <v>44</v>
-      </c>
       <c r="O38" t="s">
+        <v>439</v>
+      </c>
+      <c r="P38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38" t="s">
+        <v>48</v>
+      </c>
+      <c r="U38" t="s">
+        <v>48</v>
+      </c>
+      <c r="V38" t="s">
+        <v>440</v>
+      </c>
+      <c r="W38" t="s">
         <v>441</v>
       </c>
-      <c r="P38" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>47</v>
-      </c>
-      <c r="R38" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" t="s">
-        <v>49</v>
-      </c>
-      <c r="T38" t="s">
-        <v>49</v>
-      </c>
-      <c r="U38" t="s">
-        <v>49</v>
-      </c>
-      <c r="V38" t="s">
-        <v>442</v>
-      </c>
-      <c r="W38" t="s">
-        <v>443</v>
-      </c>
       <c r="X38" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z38" t="s">
         <v>452</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
         <v>453</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AB38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC38" t="s">
         <v>454</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AD38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE38" t="s">
         <v>455</v>
       </c>
-      <c r="AB38" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC38" t="s">
+    </row>
+    <row r="39" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>456</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>458</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E39" t="s">
         <v>436</v>
       </c>
-      <c r="D39" t="s">
-        <v>459</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>437</v>
+      </c>
+      <c r="G39" t="s">
         <v>438</v>
-      </c>
-      <c r="F39" t="s">
-        <v>439</v>
-      </c>
-      <c r="G39" t="s">
-        <v>440</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
@@ -6121,569 +5784,548 @@
       <c r="I39" t="s">
         <v>39</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K39" t="s">
         <v>40</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>41</v>
       </c>
-      <c r="L39" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" t="s">
-        <v>79</v>
-      </c>
       <c r="N39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O39" t="s">
+        <v>439</v>
+      </c>
+      <c r="P39" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" t="s">
+        <v>48</v>
+      </c>
+      <c r="T39" t="s">
+        <v>48</v>
+      </c>
+      <c r="U39" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39" t="s">
+        <v>440</v>
+      </c>
+      <c r="W39" t="s">
         <v>441</v>
       </c>
-      <c r="P39" t="s">
+      <c r="X39" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y39" t="s">
         <v>460</v>
       </c>
-      <c r="Q39" t="s">
-        <v>47</v>
-      </c>
-      <c r="R39" t="s">
-        <v>49</v>
-      </c>
-      <c r="S39" t="s">
-        <v>49</v>
-      </c>
-      <c r="T39" t="s">
-        <v>49</v>
-      </c>
-      <c r="U39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V39" t="s">
-        <v>442</v>
-      </c>
-      <c r="W39" t="s">
-        <v>443</v>
-      </c>
-      <c r="X39" t="s">
+      <c r="Z39" t="s">
         <v>461</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="AA39" t="s">
         <v>462</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AB39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC39" t="s">
         <v>463</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AD39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE39" t="s">
         <v>464</v>
       </c>
-      <c r="AB39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC39" t="s">
+    </row>
+    <row r="40" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>465</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>467</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
+        <v>465</v>
+      </c>
+      <c r="E40" t="s">
+        <v>466</v>
+      </c>
+      <c r="F40" t="s">
         <v>467</v>
       </c>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>468</v>
       </c>
-      <c r="F40" t="s">
-        <v>469</v>
-      </c>
-      <c r="G40" t="s">
-        <v>470</v>
-      </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K40" t="s">
         <v>40</v>
       </c>
-      <c r="K40" t="s">
-        <v>41</v>
-      </c>
       <c r="L40" t="s">
+        <v>469</v>
+      </c>
+      <c r="M40" t="s">
+        <v>470</v>
+      </c>
+      <c r="N40" t="s">
+        <v>163</v>
+      </c>
+      <c r="O40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" t="s">
         <v>471</v>
       </c>
-      <c r="M40" t="s">
+      <c r="Q40" t="s">
+        <v>121</v>
+      </c>
+      <c r="R40" t="s">
+        <v>47</v>
+      </c>
+      <c r="W40" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" t="s">
         <v>472</v>
       </c>
-      <c r="N40" t="s">
-        <v>165</v>
-      </c>
-      <c r="O40" t="s">
-        <v>121</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="Y40" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z40" t="s">
         <v>473</v>
       </c>
-      <c r="Q40" t="s">
-        <v>123</v>
-      </c>
-      <c r="R40" t="s">
-        <v>48</v>
-      </c>
-      <c r="S40" t="s">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s">
-        <v>124</v>
-      </c>
-      <c r="X40" t="s">
+      <c r="AA40" t="s">
         <v>474</v>
       </c>
-      <c r="Y40" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z40" t="s">
+      <c r="AB40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC40" t="s">
         <v>475</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AD40" t="s">
         <v>476</v>
       </c>
-      <c r="AB40" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC40" t="s">
+      <c r="AE40" t="s">
         <v>477</v>
       </c>
-      <c r="AD40" t="s">
+    </row>
+    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>478</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>480</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
+        <v>479</v>
+      </c>
+      <c r="D41" t="s">
+        <v>480</v>
+      </c>
+      <c r="E41" t="s">
         <v>481</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>482</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>483</v>
       </c>
-      <c r="F41" t="s">
-        <v>484</v>
-      </c>
-      <c r="G41" t="s">
-        <v>485</v>
-      </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
         <v>39</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K41" t="s">
         <v>40</v>
       </c>
-      <c r="K41" t="s">
-        <v>41</v>
-      </c>
       <c r="L41" t="s">
+        <v>484</v>
+      </c>
+      <c r="M41" t="s">
+        <v>485</v>
+      </c>
+      <c r="N41" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" t="s">
         <v>486</v>
       </c>
-      <c r="M41" t="s">
+      <c r="Q41" t="s">
+        <v>245</v>
+      </c>
+      <c r="R41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S41" t="s">
+        <v>47</v>
+      </c>
+      <c r="T41" t="s">
+        <v>48</v>
+      </c>
+      <c r="U41" t="s">
+        <v>48</v>
+      </c>
+      <c r="V41" t="s">
         <v>487</v>
       </c>
-      <c r="N41" t="s">
-        <v>120</v>
-      </c>
-      <c r="O41" t="s">
-        <v>121</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="W41" t="s">
+        <v>50</v>
+      </c>
+      <c r="X41" t="s">
         <v>488</v>
       </c>
-      <c r="Q41" t="s">
-        <v>247</v>
-      </c>
-      <c r="R41" t="s">
-        <v>49</v>
-      </c>
-      <c r="S41" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41" t="s">
-        <v>49</v>
-      </c>
-      <c r="U41" t="s">
-        <v>49</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="Y41" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z41" t="s">
         <v>489</v>
       </c>
-      <c r="W41" t="s">
-        <v>51</v>
-      </c>
-      <c r="X41" t="s">
+      <c r="AA41" t="s">
         <v>490</v>
       </c>
-      <c r="Y41" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z41" t="s">
+      <c r="AB41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC41" t="s">
         <v>491</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AD41" t="s">
         <v>492</v>
       </c>
-      <c r="AB41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC41" t="s">
+      <c r="AE41" t="s">
         <v>493</v>
       </c>
-      <c r="AD41" t="s">
+    </row>
+    <row r="42" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>494</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>496</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
+        <v>479</v>
+      </c>
+      <c r="D42" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" t="s">
         <v>481</v>
       </c>
-      <c r="D42" t="s">
-        <v>497</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>482</v>
+      </c>
+      <c r="G42" t="s">
         <v>483</v>
       </c>
-      <c r="F42" t="s">
-        <v>484</v>
-      </c>
-      <c r="G42" t="s">
-        <v>485</v>
-      </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K42" t="s">
         <v>40</v>
       </c>
-      <c r="K42" t="s">
-        <v>41</v>
-      </c>
       <c r="L42" t="s">
+        <v>484</v>
+      </c>
+      <c r="M42" t="s">
+        <v>485</v>
+      </c>
+      <c r="N42" t="s">
+        <v>118</v>
+      </c>
+      <c r="O42" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" t="s">
         <v>486</v>
       </c>
-      <c r="M42" t="s">
+      <c r="Q42" t="s">
+        <v>245</v>
+      </c>
+      <c r="R42" t="s">
+        <v>48</v>
+      </c>
+      <c r="S42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" t="s">
+        <v>48</v>
+      </c>
+      <c r="U42" t="s">
+        <v>48</v>
+      </c>
+      <c r="V42" t="s">
         <v>487</v>
       </c>
-      <c r="N42" t="s">
-        <v>120</v>
-      </c>
-      <c r="O42" t="s">
-        <v>121</v>
-      </c>
-      <c r="P42" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>247</v>
-      </c>
-      <c r="R42" t="s">
-        <v>49</v>
-      </c>
-      <c r="S42" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42" t="s">
-        <v>49</v>
-      </c>
-      <c r="U42" t="s">
-        <v>49</v>
-      </c>
-      <c r="V42" t="s">
-        <v>489</v>
-      </c>
       <c r="W42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X42" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA42" t="s">
         <v>498</v>
       </c>
-      <c r="Y42" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z42" t="s">
+      <c r="AB42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC42" t="s">
         <v>499</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AD42" t="s">
         <v>500</v>
       </c>
-      <c r="AB42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC42" t="s">
+      <c r="AE42" t="s">
         <v>501</v>
       </c>
-      <c r="AD42" t="s">
+    </row>
+    <row r="43" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>502</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>504</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
+        <v>503</v>
+      </c>
+      <c r="D43" t="s">
+        <v>504</v>
+      </c>
+      <c r="E43" t="s">
         <v>505</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>506</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>507</v>
       </c>
-      <c r="F43" t="s">
-        <v>508</v>
-      </c>
-      <c r="G43" t="s">
-        <v>509</v>
-      </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K43" t="s">
         <v>40</v>
       </c>
-      <c r="K43" t="s">
-        <v>41</v>
-      </c>
       <c r="L43" t="s">
+        <v>508</v>
+      </c>
+      <c r="M43" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O43" t="s">
+        <v>199</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43" t="s">
+        <v>47</v>
+      </c>
+      <c r="S43" t="s">
+        <v>48</v>
+      </c>
+      <c r="T43" t="s">
+        <v>48</v>
+      </c>
+      <c r="U43" t="s">
+        <v>47</v>
+      </c>
+      <c r="V43" t="s">
+        <v>509</v>
+      </c>
+      <c r="W43" t="s">
+        <v>50</v>
+      </c>
+      <c r="X43" t="s">
         <v>510</v>
       </c>
-      <c r="M43" t="s">
-        <v>43</v>
-      </c>
-      <c r="N43" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" t="s">
-        <v>201</v>
-      </c>
-      <c r="P43" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>47</v>
-      </c>
-      <c r="R43" t="s">
-        <v>48</v>
-      </c>
-      <c r="S43" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43" t="s">
-        <v>49</v>
-      </c>
-      <c r="U43" t="s">
-        <v>48</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="Y43" t="s">
         <v>511</v>
       </c>
-      <c r="W43" t="s">
-        <v>51</v>
-      </c>
-      <c r="X43" t="s">
+      <c r="Z43" t="s">
         <v>512</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AA43" t="s">
         <v>513</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AB43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC43" t="s">
         <v>514</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AD43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE43" t="s">
         <v>515</v>
       </c>
-      <c r="AB43" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC43" t="s">
+    </row>
+    <row r="44" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>516</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>518</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
       <c r="C44" t="s">
+        <v>503</v>
+      </c>
+      <c r="D44" t="s">
+        <v>517</v>
+      </c>
+      <c r="E44" t="s">
         <v>505</v>
       </c>
-      <c r="D44" t="s">
-        <v>519</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>506</v>
+      </c>
+      <c r="G44" t="s">
         <v>507</v>
       </c>
-      <c r="F44" t="s">
-        <v>508</v>
-      </c>
-      <c r="G44" t="s">
-        <v>509</v>
-      </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s">
         <v>39</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K44" t="s">
         <v>40</v>
       </c>
-      <c r="K44" t="s">
-        <v>41</v>
-      </c>
       <c r="L44" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" t="s">
         <v>43</v>
       </c>
-      <c r="N44" t="s">
-        <v>44</v>
-      </c>
       <c r="O44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" t="s">
         <v>46</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>47</v>
       </c>
-      <c r="R44" t="s">
-        <v>48</v>
-      </c>
       <c r="S44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V44" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="W44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X44" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z44" t="s">
         <v>520</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="AA44" t="s">
         <v>521</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AB44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE44" t="s">
         <v>522</v>
       </c>
-      <c r="AA44" t="s">
+    </row>
+    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>523</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>525</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E45" t="s">
+        <v>524</v>
+      </c>
+      <c r="F45" t="s">
         <v>525</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>526</v>
-      </c>
-      <c r="F45" t="s">
-        <v>527</v>
-      </c>
-      <c r="G45" t="s">
-        <v>528</v>
       </c>
       <c r="H45" t="s">
         <v>38</v>
@@ -6691,379 +6333,376 @@
       <c r="I45" t="s">
         <v>39</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K45" t="s">
         <v>40</v>
       </c>
-      <c r="K45" t="s">
-        <v>41</v>
-      </c>
       <c r="L45" t="s">
+        <v>134</v>
+      </c>
+      <c r="M45" t="s">
+        <v>527</v>
+      </c>
+      <c r="N45" t="s">
         <v>136</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45" t="s">
+        <v>48</v>
+      </c>
+      <c r="T45" t="s">
+        <v>48</v>
+      </c>
+      <c r="U45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V45" t="s">
+        <v>528</v>
+      </c>
+      <c r="W45" t="s">
+        <v>201</v>
+      </c>
+      <c r="X45" t="s">
         <v>529</v>
       </c>
-      <c r="N45" t="s">
-        <v>138</v>
-      </c>
-      <c r="O45" t="s">
-        <v>121</v>
-      </c>
-      <c r="P45" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>123</v>
-      </c>
-      <c r="R45" t="s">
-        <v>49</v>
-      </c>
-      <c r="S45" t="s">
-        <v>49</v>
-      </c>
-      <c r="T45" t="s">
-        <v>49</v>
-      </c>
-      <c r="U45" t="s">
-        <v>48</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="Y45" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z45" t="s">
         <v>530</v>
       </c>
-      <c r="W45" t="s">
-        <v>203</v>
-      </c>
-      <c r="X45" t="s">
+      <c r="AA45" t="s">
         <v>531</v>
       </c>
-      <c r="Y45" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z45" t="s">
+      <c r="AB45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE45" t="s">
         <v>532</v>
       </c>
-      <c r="AA45" t="s">
+    </row>
+    <row r="46" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>533</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>535</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
+        <v>534</v>
+      </c>
+      <c r="D46" t="s">
+        <v>535</v>
+      </c>
+      <c r="E46" t="s">
         <v>536</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>537</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>538</v>
       </c>
-      <c r="F46" t="s">
-        <v>539</v>
-      </c>
-      <c r="G46" t="s">
-        <v>540</v>
-      </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K46" t="s">
         <v>40</v>
       </c>
-      <c r="K46" t="s">
-        <v>41</v>
-      </c>
       <c r="L46" t="s">
+        <v>539</v>
+      </c>
+      <c r="M46" t="s">
+        <v>325</v>
+      </c>
+      <c r="N46" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" t="s">
+        <v>102</v>
+      </c>
+      <c r="P46" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" t="s">
+        <v>47</v>
+      </c>
+      <c r="S46" t="s">
+        <v>48</v>
+      </c>
+      <c r="T46" t="s">
+        <v>47</v>
+      </c>
+      <c r="U46" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46" t="s">
+        <v>231</v>
+      </c>
+      <c r="W46" t="s">
+        <v>88</v>
+      </c>
+      <c r="X46" t="s">
         <v>541</v>
       </c>
-      <c r="M46" t="s">
-        <v>327</v>
-      </c>
-      <c r="N46" t="s">
-        <v>86</v>
-      </c>
-      <c r="O46" t="s">
-        <v>104</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="Y46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z46" t="s">
         <v>542</v>
       </c>
-      <c r="Q46" t="s">
-        <v>47</v>
-      </c>
-      <c r="R46" t="s">
-        <v>48</v>
-      </c>
-      <c r="S46" t="s">
-        <v>49</v>
-      </c>
-      <c r="T46" t="s">
-        <v>48</v>
-      </c>
-      <c r="U46" t="s">
-        <v>49</v>
-      </c>
-      <c r="V46" t="s">
-        <v>233</v>
-      </c>
-      <c r="W46" t="s">
-        <v>90</v>
-      </c>
-      <c r="X46" t="s">
+      <c r="AA46" t="s">
         <v>543</v>
       </c>
-      <c r="Y46" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z46" t="s">
+      <c r="AB46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC46" t="s">
         <v>544</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AD46" t="s">
         <v>545</v>
       </c>
-      <c r="AB46" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC46" t="s">
+      <c r="AE46" t="s">
         <v>546</v>
       </c>
-      <c r="AD46" t="s">
+    </row>
+    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>547</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>549</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D47" t="s">
+        <v>548</v>
+      </c>
+      <c r="E47" t="s">
         <v>536</v>
       </c>
-      <c r="D47" t="s">
-        <v>550</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>537</v>
+      </c>
+      <c r="G47" t="s">
         <v>538</v>
       </c>
-      <c r="F47" t="s">
-        <v>539</v>
-      </c>
-      <c r="G47" t="s">
-        <v>540</v>
-      </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K47" t="s">
         <v>40</v>
       </c>
-      <c r="K47" t="s">
-        <v>41</v>
-      </c>
       <c r="L47" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M47" t="s">
+        <v>549</v>
+      </c>
+      <c r="N47" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" t="s">
+        <v>550</v>
+      </c>
+      <c r="P47" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>46</v>
+      </c>
+      <c r="R47" t="s">
+        <v>47</v>
+      </c>
+      <c r="S47" t="s">
+        <v>48</v>
+      </c>
+      <c r="T47" t="s">
+        <v>47</v>
+      </c>
+      <c r="U47" t="s">
+        <v>48</v>
+      </c>
+      <c r="V47" t="s">
+        <v>231</v>
+      </c>
+      <c r="W47" t="s">
+        <v>88</v>
+      </c>
+      <c r="X47" t="s">
         <v>551</v>
       </c>
-      <c r="N47" t="s">
-        <v>86</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="Y47" t="s">
         <v>552</v>
       </c>
-      <c r="P47" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>47</v>
-      </c>
-      <c r="R47" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" t="s">
-        <v>49</v>
-      </c>
-      <c r="T47" t="s">
-        <v>48</v>
-      </c>
-      <c r="U47" t="s">
-        <v>49</v>
-      </c>
-      <c r="V47" t="s">
-        <v>233</v>
-      </c>
-      <c r="W47" t="s">
-        <v>90</v>
-      </c>
-      <c r="X47" t="s">
+      <c r="Z47" t="s">
         <v>553</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="AA47" t="s">
         <v>554</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AB47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC47" t="s">
         <v>555</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AD47" t="s">
         <v>556</v>
       </c>
-      <c r="AB47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC47" t="s">
+      <c r="AE47" t="s">
         <v>557</v>
       </c>
-      <c r="AD47" t="s">
+    </row>
+    <row r="48" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>558</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>560</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
+        <v>534</v>
+      </c>
+      <c r="D48" t="s">
+        <v>559</v>
+      </c>
+      <c r="E48" t="s">
         <v>536</v>
       </c>
-      <c r="D48" t="s">
-        <v>561</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>537</v>
+      </c>
+      <c r="G48" t="s">
         <v>538</v>
       </c>
-      <c r="F48" t="s">
-        <v>539</v>
-      </c>
-      <c r="G48" t="s">
-        <v>540</v>
-      </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K48" t="s">
         <v>40</v>
       </c>
-      <c r="K48" t="s">
-        <v>41</v>
-      </c>
       <c r="L48" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M48" t="s">
+        <v>560</v>
+      </c>
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" t="s">
+        <v>102</v>
+      </c>
+      <c r="P48" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>46</v>
+      </c>
+      <c r="R48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S48" t="s">
+        <v>48</v>
+      </c>
+      <c r="T48" t="s">
+        <v>47</v>
+      </c>
+      <c r="U48" t="s">
+        <v>48</v>
+      </c>
+      <c r="V48" t="s">
+        <v>231</v>
+      </c>
+      <c r="W48" t="s">
+        <v>88</v>
+      </c>
+      <c r="X48" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y48" t="s">
         <v>562</v>
       </c>
-      <c r="N48" t="s">
-        <v>86</v>
-      </c>
-      <c r="O48" t="s">
-        <v>104</v>
-      </c>
-      <c r="P48" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>47</v>
-      </c>
-      <c r="R48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S48" t="s">
-        <v>49</v>
-      </c>
-      <c r="T48" t="s">
-        <v>48</v>
-      </c>
-      <c r="U48" t="s">
-        <v>49</v>
-      </c>
-      <c r="V48" t="s">
-        <v>233</v>
-      </c>
-      <c r="W48" t="s">
-        <v>90</v>
-      </c>
-      <c r="X48" t="s">
+      <c r="Z48" t="s">
         <v>563</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="AA48" t="s">
         <v>564</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AB48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC48" t="s">
         <v>565</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AD48" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE48" t="s">
         <v>566</v>
       </c>
-      <c r="AB48" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC48" t="s">
+    </row>
+    <row r="49" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>567</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>569</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
       </c>
       <c r="C49" t="s">
+        <v>567</v>
+      </c>
+      <c r="E49" t="s">
+        <v>568</v>
+      </c>
+      <c r="F49" t="s">
         <v>569</v>
       </c>
-      <c r="D49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>570</v>
-      </c>
-      <c r="F49" t="s">
-        <v>571</v>
-      </c>
-      <c r="G49" t="s">
-        <v>572</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
@@ -7071,94 +6710,91 @@
       <c r="I49" t="s">
         <v>39</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K49" t="s">
         <v>40</v>
       </c>
-      <c r="K49" t="s">
-        <v>41</v>
-      </c>
       <c r="L49" t="s">
+        <v>571</v>
+      </c>
+      <c r="M49" t="s">
+        <v>572</v>
+      </c>
+      <c r="N49" t="s">
+        <v>43</v>
+      </c>
+      <c r="O49" t="s">
         <v>573</v>
       </c>
-      <c r="M49" t="s">
+      <c r="P49" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R49" t="s">
+        <v>47</v>
+      </c>
+      <c r="S49" t="s">
+        <v>48</v>
+      </c>
+      <c r="T49" t="s">
+        <v>48</v>
+      </c>
+      <c r="U49" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" t="s">
+        <v>122</v>
+      </c>
+      <c r="X49" t="s">
         <v>574</v>
       </c>
-      <c r="N49" t="s">
-        <v>44</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="Y49" t="s">
         <v>575</v>
       </c>
-      <c r="P49" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>47</v>
-      </c>
-      <c r="R49" t="s">
-        <v>48</v>
-      </c>
-      <c r="S49" t="s">
-        <v>49</v>
-      </c>
-      <c r="T49" t="s">
-        <v>49</v>
-      </c>
-      <c r="U49" t="s">
-        <v>48</v>
-      </c>
-      <c r="V49" t="s">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s">
-        <v>124</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="Z49" t="s">
         <v>576</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="AA49" t="s">
         <v>577</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AB49" t="s">
         <v>578</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AC49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE49" t="s">
         <v>579</v>
       </c>
-      <c r="AB49" t="s">
+    </row>
+    <row r="50" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>580</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>582</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="C50" t="s">
+        <v>581</v>
+      </c>
+      <c r="D50" t="s">
+        <v>582</v>
+      </c>
+      <c r="E50" t="s">
         <v>583</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>584</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>585</v>
-      </c>
-      <c r="F50" t="s">
-        <v>586</v>
-      </c>
-      <c r="G50" t="s">
-        <v>587</v>
       </c>
       <c r="H50" t="s">
         <v>38</v>
@@ -7166,94 +6802,94 @@
       <c r="I50" t="s">
         <v>39</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K50" t="s">
         <v>40</v>
       </c>
-      <c r="K50" t="s">
-        <v>41</v>
-      </c>
       <c r="L50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s">
+        <v>586</v>
+      </c>
+      <c r="N50" t="s">
+        <v>43</v>
+      </c>
+      <c r="O50" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>121</v>
+      </c>
+      <c r="R50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S50" t="s">
+        <v>47</v>
+      </c>
+      <c r="T50" t="s">
+        <v>48</v>
+      </c>
+      <c r="U50" t="s">
+        <v>47</v>
+      </c>
+      <c r="V50" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50" t="s">
+        <v>50</v>
+      </c>
+      <c r="X50" t="s">
         <v>588</v>
       </c>
-      <c r="N50" t="s">
-        <v>44</v>
-      </c>
-      <c r="O50" t="s">
-        <v>121</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="Y50" t="s">
         <v>589</v>
       </c>
-      <c r="Q50" t="s">
-        <v>123</v>
-      </c>
-      <c r="R50" t="s">
-        <v>49</v>
-      </c>
-      <c r="S50" t="s">
-        <v>48</v>
-      </c>
-      <c r="T50" t="s">
-        <v>49</v>
-      </c>
-      <c r="U50" t="s">
-        <v>48</v>
-      </c>
-      <c r="V50" t="s">
-        <v>50</v>
-      </c>
-      <c r="W50" t="s">
-        <v>51</v>
-      </c>
-      <c r="X50" t="s">
+      <c r="Z50" t="s">
         <v>590</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="AA50" t="s">
         <v>591</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AB50" t="s">
         <v>592</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AC50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE50" t="s">
         <v>593</v>
       </c>
-      <c r="AB50" t="s">
+    </row>
+    <row r="51" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>594</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>596</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
+        <v>581</v>
+      </c>
+      <c r="D51" t="s">
+        <v>595</v>
+      </c>
+      <c r="E51" t="s">
         <v>583</v>
       </c>
-      <c r="D51" t="s">
-        <v>597</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>584</v>
+      </c>
+      <c r="G51" t="s">
         <v>585</v>
-      </c>
-      <c r="F51" t="s">
-        <v>586</v>
-      </c>
-      <c r="G51" t="s">
-        <v>587</v>
       </c>
       <c r="H51" t="s">
         <v>38</v>
@@ -7261,94 +6897,94 @@
       <c r="I51" t="s">
         <v>39</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K51" t="s">
         <v>40</v>
       </c>
-      <c r="K51" t="s">
-        <v>41</v>
-      </c>
       <c r="L51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M51" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P51" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>245</v>
+      </c>
+      <c r="R51" t="s">
+        <v>48</v>
+      </c>
+      <c r="S51" t="s">
+        <v>47</v>
+      </c>
+      <c r="T51" t="s">
+        <v>48</v>
+      </c>
+      <c r="U51" t="s">
+        <v>47</v>
+      </c>
+      <c r="V51" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" t="s">
+        <v>50</v>
+      </c>
+      <c r="X51" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y51" t="s">
         <v>597</v>
       </c>
-      <c r="Q51" t="s">
-        <v>247</v>
-      </c>
-      <c r="R51" t="s">
-        <v>49</v>
-      </c>
-      <c r="S51" t="s">
-        <v>48</v>
-      </c>
-      <c r="T51" t="s">
-        <v>49</v>
-      </c>
-      <c r="U51" t="s">
-        <v>48</v>
-      </c>
-      <c r="V51" t="s">
-        <v>50</v>
-      </c>
-      <c r="W51" t="s">
-        <v>51</v>
-      </c>
-      <c r="X51" t="s">
+      <c r="Z51" t="s">
         <v>598</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="AA51" t="s">
         <v>599</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AB51" t="s">
+        <v>592</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE51" t="s">
         <v>600</v>
       </c>
-      <c r="AA51" t="s">
+    </row>
+    <row r="52" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>601</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>594</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>603</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
+        <v>602</v>
+      </c>
+      <c r="D52" t="s">
+        <v>363</v>
+      </c>
+      <c r="E52" t="s">
+        <v>603</v>
+      </c>
+      <c r="F52" t="s">
         <v>604</v>
       </c>
-      <c r="D52" t="s">
-        <v>365</v>
-      </c>
-      <c r="E52" t="s">
-        <v>605</v>
-      </c>
-      <c r="F52" t="s">
-        <v>606</v>
-      </c>
       <c r="G52" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H52" t="s">
         <v>38</v>
@@ -7356,94 +6992,94 @@
       <c r="I52" t="s">
         <v>39</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K52" t="s">
         <v>40</v>
       </c>
-      <c r="K52" t="s">
-        <v>41</v>
-      </c>
       <c r="L52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s">
+        <v>605</v>
+      </c>
+      <c r="N52" t="s">
+        <v>363</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>121</v>
+      </c>
+      <c r="R52" t="s">
+        <v>48</v>
+      </c>
+      <c r="S52" t="s">
+        <v>48</v>
+      </c>
+      <c r="T52" t="s">
+        <v>48</v>
+      </c>
+      <c r="U52" t="s">
+        <v>48</v>
+      </c>
+      <c r="V52" t="s">
+        <v>606</v>
+      </c>
+      <c r="W52" t="s">
+        <v>88</v>
+      </c>
+      <c r="X52" t="s">
         <v>607</v>
       </c>
-      <c r="N52" t="s">
-        <v>365</v>
-      </c>
-      <c r="O52" t="s">
-        <v>121</v>
-      </c>
-      <c r="P52" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>123</v>
-      </c>
-      <c r="R52" t="s">
-        <v>49</v>
-      </c>
-      <c r="S52" t="s">
-        <v>49</v>
-      </c>
-      <c r="T52" t="s">
-        <v>49</v>
-      </c>
-      <c r="U52" t="s">
-        <v>49</v>
-      </c>
-      <c r="V52" t="s">
+      <c r="Y52" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z52" t="s">
         <v>608</v>
       </c>
-      <c r="W52" t="s">
-        <v>90</v>
-      </c>
-      <c r="X52" t="s">
+      <c r="AA52" t="s">
         <v>609</v>
       </c>
-      <c r="Y52" t="s">
-        <v>593</v>
-      </c>
-      <c r="Z52" t="s">
+      <c r="AB52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC52" t="s">
         <v>610</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AD52" t="s">
         <v>611</v>
       </c>
-      <c r="AB52" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC52" t="s">
+      <c r="AE52" t="s">
         <v>612</v>
       </c>
-      <c r="AD52" t="s">
+    </row>
+    <row r="53" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>613</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>615</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53" t="s">
+        <v>602</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" t="s">
+        <v>603</v>
+      </c>
+      <c r="F53" t="s">
         <v>604</v>
       </c>
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" t="s">
-        <v>605</v>
-      </c>
-      <c r="F53" t="s">
-        <v>606</v>
-      </c>
       <c r="G53" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H53" t="s">
         <v>38</v>
@@ -7451,379 +7087,364 @@
       <c r="I53" t="s">
         <v>39</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K53" t="s">
         <v>40</v>
       </c>
-      <c r="K53" t="s">
-        <v>41</v>
-      </c>
       <c r="L53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q53" t="s">
         <v>121</v>
       </c>
-      <c r="P53" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>123</v>
-      </c>
       <c r="R53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V53" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="W53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X53" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z53" t="s">
         <v>616</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="AA53" t="s">
         <v>617</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AB53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC53" t="s">
         <v>618</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AD53" t="s">
         <v>619</v>
       </c>
-      <c r="AB53" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC53" t="s">
+      <c r="AE53" t="s">
         <v>620</v>
       </c>
-      <c r="AD53" t="s">
+    </row>
+    <row r="54" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>621</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>623</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
       </c>
       <c r="C54" t="s">
+        <v>621</v>
+      </c>
+      <c r="E54" t="s">
+        <v>622</v>
+      </c>
+      <c r="F54" t="s">
         <v>623</v>
       </c>
-      <c r="D54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>624</v>
       </c>
-      <c r="F54" t="s">
-        <v>625</v>
-      </c>
-      <c r="G54" t="s">
-        <v>626</v>
-      </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K54" t="s">
         <v>40</v>
       </c>
-      <c r="K54" t="s">
-        <v>41</v>
-      </c>
       <c r="L54" t="s">
+        <v>625</v>
+      </c>
+      <c r="M54" t="s">
+        <v>626</v>
+      </c>
+      <c r="N54" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" t="s">
         <v>627</v>
       </c>
-      <c r="M54" t="s">
+      <c r="Q54" t="s">
+        <v>245</v>
+      </c>
+      <c r="R54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" t="s">
+        <v>47</v>
+      </c>
+      <c r="T54" t="s">
+        <v>48</v>
+      </c>
+      <c r="U54" t="s">
+        <v>48</v>
+      </c>
+      <c r="V54" t="s">
+        <v>87</v>
+      </c>
+      <c r="W54" t="s">
+        <v>88</v>
+      </c>
+      <c r="X54" t="s">
         <v>628</v>
       </c>
-      <c r="N54" t="s">
-        <v>120</v>
-      </c>
-      <c r="O54" t="s">
-        <v>121</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="Y54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z54" t="s">
         <v>629</v>
       </c>
-      <c r="Q54" t="s">
-        <v>247</v>
-      </c>
-      <c r="R54" t="s">
-        <v>49</v>
-      </c>
-      <c r="S54" t="s">
-        <v>48</v>
-      </c>
-      <c r="T54" t="s">
-        <v>49</v>
-      </c>
-      <c r="U54" t="s">
-        <v>49</v>
-      </c>
-      <c r="V54" t="s">
-        <v>89</v>
-      </c>
-      <c r="W54" t="s">
-        <v>90</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="AA54" t="s">
         <v>630</v>
       </c>
-      <c r="Y54" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z54" t="s">
+      <c r="AB54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC54" t="s">
         <v>631</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AD54" t="s">
         <v>632</v>
       </c>
-      <c r="AB54" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC54" t="s">
+      <c r="AE54" t="s">
         <v>633</v>
       </c>
-      <c r="AD54" t="s">
+    </row>
+    <row r="55" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>634</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>636</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
       </c>
       <c r="C55" t="s">
+        <v>634</v>
+      </c>
+      <c r="E55" t="s">
+        <v>635</v>
+      </c>
+      <c r="F55" t="s">
         <v>636</v>
       </c>
-      <c r="D55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>637</v>
       </c>
-      <c r="F55" t="s">
-        <v>638</v>
-      </c>
-      <c r="G55" t="s">
-        <v>639</v>
-      </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s">
         <v>39</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K55" t="s">
         <v>40</v>
       </c>
-      <c r="K55" t="s">
-        <v>41</v>
-      </c>
       <c r="L55" t="s">
+        <v>638</v>
+      </c>
+      <c r="M55" t="s">
+        <v>639</v>
+      </c>
+      <c r="N55" t="s">
         <v>640</v>
       </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
         <v>641</v>
       </c>
-      <c r="N55" t="s">
+      <c r="P55" t="s">
         <v>642</v>
       </c>
-      <c r="O55" t="s">
+      <c r="Q55" t="s">
+        <v>46</v>
+      </c>
+      <c r="R55" t="s">
+        <v>47</v>
+      </c>
+      <c r="S55" t="s">
+        <v>48</v>
+      </c>
+      <c r="T55" t="s">
+        <v>48</v>
+      </c>
+      <c r="U55" t="s">
+        <v>47</v>
+      </c>
+      <c r="W55" t="s">
+        <v>122</v>
+      </c>
+      <c r="X55" t="s">
         <v>643</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Y55" t="s">
         <v>644</v>
       </c>
-      <c r="Q55" t="s">
-        <v>47</v>
-      </c>
-      <c r="R55" t="s">
-        <v>48</v>
-      </c>
-      <c r="S55" t="s">
-        <v>49</v>
-      </c>
-      <c r="T55" t="s">
-        <v>49</v>
-      </c>
-      <c r="U55" t="s">
-        <v>48</v>
-      </c>
-      <c r="V55" t="s">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s">
-        <v>124</v>
-      </c>
-      <c r="X55" t="s">
+      <c r="Z55" t="s">
         <v>645</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="AA55" t="s">
         <v>646</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AB55" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC55" t="s">
         <v>647</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AD55" t="s">
         <v>648</v>
       </c>
-      <c r="AB55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC55" t="s">
+      <c r="AE55" t="s">
         <v>649</v>
       </c>
-      <c r="AD55" t="s">
+    </row>
+    <row r="56" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>650</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>652</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
       </c>
       <c r="C56" t="s">
+        <v>650</v>
+      </c>
+      <c r="E56" t="s">
+        <v>651</v>
+      </c>
+      <c r="F56" t="s">
         <v>652</v>
       </c>
-      <c r="D56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>653</v>
       </c>
-      <c r="F56" t="s">
-        <v>654</v>
-      </c>
-      <c r="G56" t="s">
-        <v>655</v>
-      </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
         <v>39</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K56" t="s">
         <v>40</v>
       </c>
-      <c r="K56" t="s">
-        <v>41</v>
-      </c>
       <c r="L56" t="s">
+        <v>654</v>
+      </c>
+      <c r="M56" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" t="s">
+        <v>163</v>
+      </c>
+      <c r="O56" t="s">
+        <v>439</v>
+      </c>
+      <c r="P56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>46</v>
+      </c>
+      <c r="R56" t="s">
+        <v>48</v>
+      </c>
+      <c r="S56" t="s">
+        <v>48</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U56" t="s">
+        <v>655</v>
+      </c>
+      <c r="V56" t="s">
         <v>656</v>
       </c>
-      <c r="M56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N56" t="s">
-        <v>165</v>
-      </c>
-      <c r="O56" t="s">
-        <v>441</v>
-      </c>
-      <c r="P56" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>47</v>
-      </c>
-      <c r="R56" t="s">
-        <v>49</v>
-      </c>
-      <c r="S56" t="s">
-        <v>49</v>
-      </c>
-      <c r="T56" t="s">
-        <v>49</v>
-      </c>
-      <c r="U56" t="s">
+      <c r="W56" t="s">
+        <v>140</v>
+      </c>
+      <c r="X56" t="s">
         <v>657</v>
       </c>
-      <c r="V56" t="s">
+      <c r="Y56" t="s">
         <v>658</v>
       </c>
-      <c r="W56" t="s">
-        <v>142</v>
-      </c>
-      <c r="X56" t="s">
+      <c r="Z56" t="s">
         <v>659</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="AA56" t="s">
         <v>660</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AB56" t="s">
+        <v>648</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE56" t="s">
         <v>661</v>
       </c>
-      <c r="AA56" t="s">
+    </row>
+    <row r="57" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>662</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>650</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>664</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57" t="s">
+        <v>662</v>
+      </c>
+      <c r="E57" t="s">
+        <v>663</v>
+      </c>
+      <c r="F57" t="s">
         <v>664</v>
       </c>
-      <c r="D57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>665</v>
-      </c>
-      <c r="F57" t="s">
-        <v>666</v>
-      </c>
-      <c r="G57" t="s">
-        <v>667</v>
       </c>
       <c r="H57" t="s">
         <v>38</v>
@@ -7831,94 +7452,79 @@
       <c r="I57" t="s">
         <v>39</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K57" t="s">
         <v>40</v>
       </c>
-      <c r="K57" t="s">
-        <v>41</v>
-      </c>
       <c r="L57" t="s">
+        <v>666</v>
+      </c>
+      <c r="M57" t="s">
+        <v>667</v>
+      </c>
+      <c r="N57" t="s">
+        <v>43</v>
+      </c>
+      <c r="O57" t="s">
+        <v>119</v>
+      </c>
+      <c r="P57" t="s">
         <v>668</v>
       </c>
-      <c r="M57" t="s">
+      <c r="Q57" t="s">
+        <v>46</v>
+      </c>
+      <c r="R57" t="s">
+        <v>48</v>
+      </c>
+      <c r="W57" t="s">
+        <v>122</v>
+      </c>
+      <c r="X57" t="s">
         <v>669</v>
       </c>
-      <c r="N57" t="s">
-        <v>44</v>
-      </c>
-      <c r="O57" t="s">
-        <v>121</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="Y57" t="s">
         <v>670</v>
       </c>
-      <c r="Q57" t="s">
-        <v>47</v>
-      </c>
-      <c r="R57" t="s">
-        <v>49</v>
-      </c>
-      <c r="S57" t="s">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s">
-        <v>124</v>
-      </c>
-      <c r="X57" t="s">
+      <c r="Z57" t="s">
         <v>671</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="AA57" t="s">
         <v>672</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AB57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC57" t="s">
         <v>673</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AD57" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE57" t="s">
         <v>674</v>
       </c>
-      <c r="AB57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC57" t="s">
+    </row>
+    <row r="58" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>675</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>677</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
       </c>
       <c r="C58" t="s">
+        <v>675</v>
+      </c>
+      <c r="E58" t="s">
+        <v>676</v>
+      </c>
+      <c r="F58" t="s">
         <v>677</v>
       </c>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>678</v>
-      </c>
-      <c r="F58" t="s">
-        <v>679</v>
-      </c>
-      <c r="G58" t="s">
-        <v>680</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
@@ -7926,94 +7532,76 @@
       <c r="I58" t="s">
         <v>39</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K58" t="s">
         <v>40</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>41</v>
       </c>
-      <c r="L58" t="s">
-        <v>42</v>
-      </c>
       <c r="M58" t="s">
+        <v>380</v>
+      </c>
+      <c r="N58" t="s">
+        <v>679</v>
+      </c>
+      <c r="P58" t="s">
         <v>382</v>
       </c>
-      <c r="N58" t="s">
+      <c r="Q58" t="s">
+        <v>46</v>
+      </c>
+      <c r="R58" t="s">
+        <v>47</v>
+      </c>
+      <c r="W58" t="s">
+        <v>122</v>
+      </c>
+      <c r="X58" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y58" t="s">
         <v>681</v>
       </c>
-      <c r="O58" t="s">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>47</v>
-      </c>
-      <c r="R58" t="s">
-        <v>48</v>
-      </c>
-      <c r="S58" t="s">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s">
-        <v>124</v>
-      </c>
-      <c r="X58" t="s">
+      <c r="Z58" t="s">
         <v>682</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="AA58" t="s">
         <v>683</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AB58" t="s">
         <v>684</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AC58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE58" t="s">
         <v>685</v>
       </c>
-      <c r="AB58" t="s">
+    </row>
+    <row r="59" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>686</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>688</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
       </c>
       <c r="C59" t="s">
+        <v>686</v>
+      </c>
+      <c r="E59" t="s">
+        <v>687</v>
+      </c>
+      <c r="F59" t="s">
         <v>688</v>
       </c>
-      <c r="D59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>689</v>
-      </c>
-      <c r="F59" t="s">
-        <v>690</v>
-      </c>
-      <c r="G59" t="s">
-        <v>691</v>
       </c>
       <c r="H59" t="s">
         <v>38</v>
@@ -8021,73 +7609,74 @@
       <c r="I59" t="s">
         <v>39</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1">
+        <v>10044268</v>
+      </c>
+      <c r="K59" t="s">
         <v>40</v>
       </c>
-      <c r="K59" t="s">
-        <v>41</v>
-      </c>
       <c r="L59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M59" t="s">
+        <v>690</v>
+      </c>
+      <c r="N59" t="s">
+        <v>84</v>
+      </c>
+      <c r="O59" t="s">
+        <v>691</v>
+      </c>
+      <c r="P59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>121</v>
+      </c>
+      <c r="R59" t="s">
+        <v>47</v>
+      </c>
+      <c r="S59" t="s">
+        <v>48</v>
+      </c>
+      <c r="T59" t="s">
+        <v>48</v>
+      </c>
+      <c r="U59" t="s">
+        <v>48</v>
+      </c>
+      <c r="V59" t="s">
         <v>692</v>
       </c>
-      <c r="N59" t="s">
-        <v>86</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="W59" t="s">
+        <v>88</v>
+      </c>
+      <c r="X59" t="s">
         <v>693</v>
       </c>
-      <c r="P59" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>123</v>
-      </c>
-      <c r="R59" t="s">
-        <v>48</v>
-      </c>
-      <c r="S59" t="s">
-        <v>49</v>
-      </c>
-      <c r="T59" t="s">
-        <v>49</v>
-      </c>
-      <c r="U59" t="s">
-        <v>49</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="Y59" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z59" t="s">
         <v>694</v>
       </c>
-      <c r="W59" t="s">
-        <v>90</v>
-      </c>
-      <c r="X59" t="s">
+      <c r="AA59" t="s">
         <v>695</v>
       </c>
-      <c r="Y59" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" t="s">
+      <c r="AB59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC59" t="s">
         <v>696</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AD59" t="s">
         <v>697</v>
       </c>
-      <c r="AB59" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC59" t="s">
+      <c r="AE59" t="s">
         <v>698</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>699</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>700</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/website/datavzrd/scPerturb_vzrd_v2/data.xlsx
+++ b/website/datavzrd/scPerturb_vzrd_v2/data.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peidli/work/projects/scPerturb/website/datavzrd/scPerturb_vzrd_v2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE9A6D-48F3-B146-A941-47C8C65C7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="dataset_info" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset_info" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="702">
   <si>
     <t>Full index</t>
   </si>
@@ -142,6 +131,9 @@
     <t>RNA</t>
   </si>
   <si>
+    <t>10044268</t>
+  </si>
+  <si>
     <t>h5ad</t>
   </si>
   <si>
@@ -175,28 +167,28 @@
     <t>2019</t>
   </si>
   <si>
-    <t>5768.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>2580.0</t>
-  </si>
-  <si>
-    <t>9969.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>555.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1769.0</t>
+    <t>5768</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2580</t>
+  </si>
+  <si>
+    <t>9969</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1769</t>
   </si>
   <si>
     <t>AdamsonWeissman2016_GSM2406677_10X005</t>
@@ -205,28 +197,28 @@
     <t>GSM2406677_10X005</t>
   </si>
   <si>
-    <t>15006.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>4304.0</t>
-  </si>
-  <si>
-    <t>25082.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1715.0</t>
+    <t>15006</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4304</t>
+  </si>
+  <si>
+    <t>25082</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1715</t>
   </si>
   <si>
     <t>AdamsonWeissman2016_GSM2406681_10X010</t>
@@ -235,27 +227,30 @@
     <t>GSM2406681_10X010</t>
   </si>
   <si>
-    <t>65337.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>3690.0</t>
-  </si>
-  <si>
-    <t>15355.0</t>
-  </si>
-  <si>
-    <t>554.0</t>
-  </si>
-  <si>
-    <t>6010.0</t>
+    <t>65337</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>3690</t>
+  </si>
+  <si>
+    <t>15355</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>6010</t>
   </si>
   <si>
     <t>AissaBenevolenskaya2021</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Single-cell transcriptional changes associated with drug tolerance and response to combination therapies in cancer</t>
   </si>
   <si>
@@ -289,25 +284,25 @@
     <t>2020</t>
   </si>
   <si>
-    <t>119071.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>29874.0</t>
-  </si>
-  <si>
-    <t>29340.0</t>
-  </si>
-  <si>
-    <t>29983.0</t>
+    <t>166589</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>23869</t>
+  </si>
+  <si>
+    <t>4942</t>
+  </si>
+  <si>
+    <t>35243</t>
   </si>
   <si>
     <t>ChangYe2021</t>
@@ -337,22 +332,25 @@
     <t>2021</t>
   </si>
   <si>
-    <t>42277.0</t>
-  </si>
-  <si>
-    <t>5278.0</t>
-  </si>
-  <si>
-    <t>18961.0</t>
-  </si>
-  <si>
-    <t>7657.0</t>
-  </si>
-  <si>
-    <t>5920.0</t>
-  </si>
-  <si>
-    <t>21043.0</t>
+    <t>42277</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5278</t>
+  </si>
+  <si>
+    <t>18961</t>
+  </si>
+  <si>
+    <t>7657</t>
+  </si>
+  <si>
+    <t>5920</t>
+  </si>
+  <si>
+    <t>21043</t>
   </si>
   <si>
     <t>CuiHacohen2023</t>
@@ -391,25 +389,25 @@
     <t>2023</t>
   </si>
   <si>
-    <t>539717.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>681.5</t>
-  </si>
-  <si>
-    <t>202.0</t>
-  </si>
-  <si>
-    <t>349669.0</t>
+    <t>96034</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>3891</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>1296</t>
   </si>
   <si>
     <t>DatlingerBock2017</t>
@@ -445,19 +443,22 @@
     <t>2016</t>
   </si>
   <si>
-    <t>5905.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>2713.0</t>
-  </si>
-  <si>
-    <t>6711.0</t>
-  </si>
-  <si>
-    <t>1320.0</t>
+    <t>5905</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>6711</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1320</t>
   </si>
   <si>
     <t>DatlingerBock2021</t>
@@ -478,25 +479,25 @@
     <t>01.12.2019</t>
   </si>
   <si>
-    <t>39194.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>179.0</t>
-  </si>
-  <si>
-    <t>460.0</t>
-  </si>
-  <si>
-    <t>809.0</t>
-  </si>
-  <si>
-    <t>213.0</t>
-  </si>
-  <si>
-    <t>4497.0</t>
+    <t>39194</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>4497</t>
   </si>
   <si>
     <t>DixitRegev2016</t>
@@ -523,19 +524,19 @@
     <t>01.11.2016</t>
   </si>
   <si>
-    <t>51898.0</t>
-  </si>
-  <si>
-    <t>1728.0</t>
-  </si>
-  <si>
-    <t>3080.0</t>
-  </si>
-  <si>
-    <t>13974.0</t>
-  </si>
-  <si>
-    <t>4224.0</t>
+    <t>51898</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>3080</t>
+  </si>
+  <si>
+    <t>13974</t>
+  </si>
+  <si>
+    <t>4224</t>
   </si>
   <si>
     <t>FrangiehIzar2021_RNA</t>
@@ -571,25 +572,25 @@
     <t>01.08.2020</t>
   </si>
   <si>
-    <t>218331.0</t>
-  </si>
-  <si>
-    <t>248.0</t>
-  </si>
-  <si>
-    <t>3314.0</t>
-  </si>
-  <si>
-    <t>10988.0</t>
-  </si>
-  <si>
-    <t>659.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>57605.0</t>
+    <t>218331</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>3314</t>
+  </si>
+  <si>
+    <t>10988</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>57605</t>
   </si>
   <si>
     <t>FrangiehIzar2021_protein</t>
@@ -628,22 +629,22 @@
     <t>2018</t>
   </si>
   <si>
-    <t>207324.0</t>
-  </si>
-  <si>
-    <t>203495.0</t>
-  </si>
-  <si>
-    <t>3406.0</t>
-  </si>
-  <si>
-    <t>17128.0</t>
-  </si>
-  <si>
-    <t>298.0</t>
-  </si>
-  <si>
-    <t>1527.0</t>
+    <t>207324</t>
+  </si>
+  <si>
+    <t>203495</t>
+  </si>
+  <si>
+    <t>3406</t>
+  </si>
+  <si>
+    <t>17128</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>1527</t>
   </si>
   <si>
     <t>GasperiniShendure2019_highMOI</t>
@@ -652,22 +653,22 @@
     <t>highMOI</t>
   </si>
   <si>
-    <t>47650.0</t>
-  </si>
-  <si>
-    <t>39087.0</t>
-  </si>
-  <si>
-    <t>3795.0</t>
+    <t>47650</t>
+  </si>
+  <si>
+    <t>39087</t>
+  </si>
+  <si>
+    <t>3795</t>
   </si>
   <si>
     <t>19035.5</t>
   </si>
   <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>299.0</t>
+    <t>67</t>
+  </si>
+  <si>
+    <t>299</t>
   </si>
   <si>
     <t>GasperiniShendure2019_lowMOI</t>
@@ -676,22 +677,22 @@
     <t>lowMOI</t>
   </si>
   <si>
-    <t>41284.0</t>
-  </si>
-  <si>
-    <t>16531.0</t>
+    <t>41284</t>
+  </si>
+  <si>
+    <t>16531</t>
   </si>
   <si>
     <t>3871.5</t>
   </si>
   <si>
-    <t>21643.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>4473.0</t>
+    <t>21643</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4473</t>
   </si>
   <si>
     <t>GehringPachter2019</t>
@@ -718,16 +719,16 @@
     <t>01.01.2020</t>
   </si>
   <si>
-    <t>20382.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1445.0</t>
-  </si>
-  <si>
-    <t>2405.93310546875</t>
+    <t>20382</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>2405</t>
   </si>
   <si>
     <t>JoungZhang2023_atlas</t>
@@ -760,22 +761,22 @@
     <t>stem</t>
   </si>
   <si>
-    <t>1145823.0</t>
-  </si>
-  <si>
-    <t>3368.0</t>
-  </si>
-  <si>
-    <t>2283.0</t>
-  </si>
-  <si>
-    <t>3358.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>78274.0</t>
+    <t>1145823</t>
+  </si>
+  <si>
+    <t>3368</t>
+  </si>
+  <si>
+    <t>2283</t>
+  </si>
+  <si>
+    <t>3358</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>78274</t>
   </si>
   <si>
     <t>JoungZhang2023_combinatorial</t>
@@ -784,25 +785,25 @@
     <t>combinatorial</t>
   </si>
   <si>
-    <t>167947.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>1559.0</t>
-  </si>
-  <si>
-    <t>2074.0</t>
-  </si>
-  <si>
-    <t>413.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>29194.0</t>
+    <t>167947</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>2074</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>29194</t>
   </si>
   <si>
     <t>LaraAstiasoHuntly2023_exvivo</t>
@@ -832,25 +833,25 @@
     <t>bone marrow</t>
   </si>
   <si>
-    <t>146793.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>3262.0</t>
-  </si>
-  <si>
-    <t>12161.0</t>
+    <t>146793</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>3262</t>
+  </si>
+  <si>
+    <t>12161</t>
   </si>
   <si>
     <t>1387.5</t>
   </si>
   <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>71927.0</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71927</t>
   </si>
   <si>
     <t>LaraAstiasoHuntly2023_invivo</t>
@@ -859,16 +860,16 @@
     <t>invivo</t>
   </si>
   <si>
-    <t>135836.0</t>
-  </si>
-  <si>
-    <t>2050.0</t>
+    <t>135836</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
   <si>
     <t>527.5</t>
   </si>
   <si>
-    <t>79771.0</t>
+    <t>79771</t>
   </si>
   <si>
     <t>LaraAstiasoHuntly2023_leukemia</t>
@@ -877,22 +878,22 @@
     <t>leukemia</t>
   </si>
   <si>
-    <t>182949.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>1635.0</t>
-  </si>
-  <si>
-    <t>4350.0</t>
-  </si>
-  <si>
-    <t>546.0</t>
-  </si>
-  <si>
-    <t>135613.0</t>
+    <t>182949</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>4350</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>135613</t>
   </si>
   <si>
     <t>LiangWang2023</t>
@@ -919,25 +920,25 @@
     <t>organoid</t>
   </si>
   <si>
-    <t>41383.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>3771.0</t>
-  </si>
-  <si>
-    <t>16928.0</t>
+    <t>41383</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>3771</t>
+  </si>
+  <si>
+    <t>16928</t>
   </si>
   <si>
     <t>455.5</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>2459.0</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2459</t>
   </si>
   <si>
     <t>Liscovitch-BrauerSanjana2021_K562_1</t>
@@ -1003,25 +1004,25 @@
     <t>lung epithelial cells</t>
   </si>
   <si>
-    <t>63430.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>1712.0</t>
-  </si>
-  <si>
-    <t>2582.0</t>
-  </si>
-  <si>
-    <t>1965.0</t>
-  </si>
-  <si>
-    <t>477.0</t>
-  </si>
-  <si>
-    <t>3302.0</t>
+    <t>63430</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>3302</t>
   </si>
   <si>
     <t>McFarlandTsherniak2020</t>
@@ -1048,25 +1049,25 @@
     <t>partially</t>
   </si>
   <si>
-    <t>182875.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>3780.0</t>
-  </si>
-  <si>
-    <t>17976.0</t>
-  </si>
-  <si>
-    <t>6674.0</t>
-  </si>
-  <si>
-    <t>2093.0</t>
-  </si>
-  <si>
-    <t>41300.0</t>
+    <t>182875</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3780</t>
+  </si>
+  <si>
+    <t>17976</t>
+  </si>
+  <si>
+    <t>6674</t>
+  </si>
+  <si>
+    <t>2093</t>
+  </si>
+  <si>
+    <t>41300</t>
   </si>
   <si>
     <t>MimitouSmibert2021</t>
@@ -1117,25 +1118,25 @@
     <t>01.03.2019</t>
   </si>
   <si>
-    <t>111445.0</t>
-  </si>
-  <si>
-    <t>236.0</t>
-  </si>
-  <si>
-    <t>3233.0</t>
-  </si>
-  <si>
-    <t>13855.0</t>
-  </si>
-  <si>
-    <t>354.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>11855.0</t>
+    <t>111445</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>3233</t>
+  </si>
+  <si>
+    <t>13855</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>11855</t>
   </si>
   <si>
     <t>PapalexiSatija2021_eccite_RNA</t>
@@ -1174,22 +1175,22 @@
     <t>01.03.2021</t>
   </si>
   <si>
-    <t>20729.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>3292.0</t>
-  </si>
-  <si>
-    <t>11815.0</t>
-  </si>
-  <si>
-    <t>173.0</t>
-  </si>
-  <si>
-    <t>2386.0</t>
+    <t>20729</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>3292</t>
+  </si>
+  <si>
+    <t>11815</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>2386</t>
   </si>
   <si>
     <t>PapalexiSatija2021_eccite_arrayed_RNA</t>
@@ -1198,22 +1199,22 @@
     <t>eccite_arrayed_RNA</t>
   </si>
   <si>
-    <t>8984.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2530.0</t>
+    <t>8984</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2530</t>
   </si>
   <si>
     <t>7110.5</t>
   </si>
   <si>
-    <t>723.0</t>
-  </si>
-  <si>
-    <t>2009.0</t>
+    <t>723</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
   <si>
     <t>PapalexiSatija2021_eccite_arrayed_protein</t>
@@ -1303,7 +1304,7 @@
     <t>colonic epithelial cells</t>
   </si>
   <si>
-    <t>68574.0</t>
+    <t>68574</t>
   </si>
   <si>
     <t>3563.5</t>
@@ -1312,13 +1313,13 @@
     <t>13280.5</t>
   </si>
   <si>
-    <t>15450.0</t>
-  </si>
-  <si>
-    <t>8602.0</t>
-  </si>
-  <si>
-    <t>16315.0</t>
+    <t>15450</t>
+  </si>
+  <si>
+    <t>8602</t>
+  </si>
+  <si>
+    <t>16315</t>
   </si>
   <si>
     <t>ReplogleWeissman2022_K562_essential</t>
@@ -1348,22 +1349,22 @@
     <t>2022</t>
   </si>
   <si>
-    <t>310385.0</t>
-  </si>
-  <si>
-    <t>2057.0</t>
-  </si>
-  <si>
-    <t>3618.0</t>
-  </si>
-  <si>
-    <t>13207.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>10691.0</t>
+    <t>310385</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
+    <t>3618</t>
+  </si>
+  <si>
+    <t>13207</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>10691</t>
   </si>
   <si>
     <t>ReplogleWeissman2022_K562_gwps</t>
@@ -1372,22 +1373,22 @@
     <t>K562_gwps</t>
   </si>
   <si>
-    <t>1989578.0</t>
-  </si>
-  <si>
-    <t>9866.0</t>
-  </si>
-  <si>
-    <t>3215.0</t>
-  </si>
-  <si>
-    <t>11304.0</t>
-  </si>
-  <si>
-    <t>178.0</t>
-  </si>
-  <si>
-    <t>75328.0</t>
+    <t>1989578</t>
+  </si>
+  <si>
+    <t>9866</t>
+  </si>
+  <si>
+    <t>3215</t>
+  </si>
+  <si>
+    <t>11304</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>75328</t>
   </si>
   <si>
     <t>ReplogleWeissman2022_rpe1</t>
@@ -1399,22 +1400,22 @@
     <t>epithelial</t>
   </si>
   <si>
-    <t>247914.0</t>
-  </si>
-  <si>
-    <t>2393.0</t>
-  </si>
-  <si>
-    <t>3441.0</t>
-  </si>
-  <si>
-    <t>11940.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>11485.0</t>
+    <t>247914</t>
+  </si>
+  <si>
+    <t>2393</t>
+  </si>
+  <si>
+    <t>3441</t>
+  </si>
+  <si>
+    <t>11940</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>11485</t>
   </si>
   <si>
     <t>SantinhaPlatt2023</t>
@@ -1438,22 +1439,22 @@
     <t>neurons</t>
   </si>
   <si>
-    <t>100134.0</t>
-  </si>
-  <si>
-    <t>4307.0</t>
-  </si>
-  <si>
-    <t>14025.0</t>
-  </si>
-  <si>
-    <t>1581.0</t>
-  </si>
-  <si>
-    <t>148.0</t>
-  </si>
-  <si>
-    <t>54736.0</t>
+    <t>100134</t>
+  </si>
+  <si>
+    <t>4307</t>
+  </si>
+  <si>
+    <t>14025</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>54736</t>
   </si>
   <si>
     <t>SchiebingerLander2019_GSE106340</t>
@@ -1486,22 +1487,22 @@
     <t>01.02.2019</t>
   </si>
   <si>
-    <t>68339.0</t>
-  </si>
-  <si>
-    <t>2358.0</t>
-  </si>
-  <si>
-    <t>7170.0</t>
-  </si>
-  <si>
-    <t>26496.0</t>
-  </si>
-  <si>
-    <t>12006.0</t>
-  </si>
-  <si>
-    <t>29837.0</t>
+    <t>68339</t>
+  </si>
+  <si>
+    <t>2358</t>
+  </si>
+  <si>
+    <t>7170</t>
+  </si>
+  <si>
+    <t>26496</t>
+  </si>
+  <si>
+    <t>12006</t>
+  </si>
+  <si>
+    <t>29837</t>
   </si>
   <si>
     <t>SchiebingerLander2019_GSE115943</t>
@@ -1510,22 +1511,22 @@
     <t>GSE115943</t>
   </si>
   <si>
-    <t>259155.0</t>
-  </si>
-  <si>
-    <t>2550.0</t>
-  </si>
-  <si>
-    <t>10271.0</t>
-  </si>
-  <si>
-    <t>78970.0</t>
-  </si>
-  <si>
-    <t>77967.0</t>
-  </si>
-  <si>
-    <t>102218.0</t>
+    <t>259155</t>
+  </si>
+  <si>
+    <t>2550</t>
+  </si>
+  <si>
+    <t>10271</t>
+  </si>
+  <si>
+    <t>78970</t>
+  </si>
+  <si>
+    <t>77967</t>
+  </si>
+  <si>
+    <t>102218</t>
   </si>
   <si>
     <t>SchraivogelSteinmetz2020_TAP_SCREEN__chromosome_11_screen</t>
@@ -1552,22 +1553,22 @@
     <t>01.08.2019</t>
   </si>
   <si>
-    <t>120310.0</t>
-  </si>
-  <si>
-    <t>3104.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>1557.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>15711.0</t>
+    <t>120310</t>
+  </si>
+  <si>
+    <t>3104</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>15711</t>
   </si>
   <si>
     <t>SchraivogelSteinmetz2020_TAP_SCREEN__chromosome_8_screen</t>
@@ -1576,19 +1577,19 @@
     <t>TAP_SCREEN__chromosome_8_screen</t>
   </si>
   <si>
-    <t>112260.0</t>
-  </si>
-  <si>
-    <t>4114.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>1218.0</t>
-  </si>
-  <si>
-    <t>20619.0</t>
+    <t>112260</t>
+  </si>
+  <si>
+    <t>4114</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>20619</t>
   </si>
   <si>
     <t>ShifrutMarson2018</t>
@@ -1609,16 +1610,16 @@
     <t>01.09.2018</t>
   </si>
   <si>
-    <t>52236.0</t>
-  </si>
-  <si>
-    <t>1894.0</t>
-  </si>
-  <si>
-    <t>5382.0</t>
-  </si>
-  <si>
-    <t>39813.0</t>
+    <t>52236</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>5382</t>
+  </si>
+  <si>
+    <t>39813</t>
   </si>
   <si>
     <t>SrivatsanTrapnell2020_sciplex2</t>
@@ -1645,22 +1646,22 @@
     <t>alveolar basal epithelial cells</t>
   </si>
   <si>
-    <t>24262.0</t>
-  </si>
-  <si>
-    <t>2280.0</t>
-  </si>
-  <si>
-    <t>4207.0</t>
-  </si>
-  <si>
-    <t>5530.0</t>
-  </si>
-  <si>
-    <t>529.0</t>
-  </si>
-  <si>
-    <t>8064.0</t>
+    <t>24262</t>
+  </si>
+  <si>
+    <t>2280</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>5530</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>8064</t>
   </si>
   <si>
     <t>SrivatsanTrapnell2020_sciplex3</t>
@@ -1675,25 +1676,25 @@
     <t>multiple</t>
   </si>
   <si>
-    <t>799317.0</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>953.0</t>
-  </si>
-  <si>
-    <t>1502.0</t>
+    <t>799317</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1502</t>
   </si>
   <si>
     <t>3807.5</t>
   </si>
   <si>
-    <t>1007.0</t>
-  </si>
-  <si>
-    <t>36522.0</t>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>36522</t>
   </si>
   <si>
     <t>SrivatsanTrapnell2020_sciplex4</t>
@@ -1705,22 +1706,19 @@
     <t>A549 (lung adenocarcinoma) and MCF7 (mammary adenocarcinoma)</t>
   </si>
   <si>
-    <t>98437.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>925.0</t>
-  </si>
-  <si>
-    <t>1538.0</t>
-  </si>
-  <si>
-    <t>9885.0</t>
-  </si>
-  <si>
-    <t>20015.0</t>
+    <t>98437</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>9885</t>
+  </si>
+  <si>
+    <t>20015</t>
   </si>
   <si>
     <t>SunshineHein2023</t>
@@ -1744,22 +1742,22 @@
     <t>lung adenocarcinoma and SARS-CoV-2</t>
   </si>
   <si>
-    <t>90380.0</t>
-  </si>
-  <si>
-    <t>24194.0</t>
+    <t>90380</t>
+  </si>
+  <si>
+    <t>24194</t>
   </si>
   <si>
     <t>4182.5</t>
   </si>
   <si>
-    <t>17626.0</t>
-  </si>
-  <si>
-    <t>156.0</t>
-  </si>
-  <si>
-    <t>16391.0</t>
+    <t>17626</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>16391</t>
   </si>
   <si>
     <t>TianKampmann2019_day7neuron</t>
@@ -1786,22 +1784,22 @@
     <t>iPSC-induced neuron</t>
   </si>
   <si>
-    <t>182790.0</t>
-  </si>
-  <si>
-    <t>41357.0</t>
+    <t>182790</t>
+  </si>
+  <si>
+    <t>41357</t>
   </si>
   <si>
     <t>86.5</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>21895.0</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>21895</t>
   </si>
   <si>
     <t>TianKampmann2019_iPSC</t>
@@ -1810,19 +1808,19 @@
     <t>iPSC</t>
   </si>
   <si>
-    <t>275708.0</t>
-  </si>
-  <si>
-    <t>39161.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>39004.0</t>
+    <t>275708</t>
+  </si>
+  <si>
+    <t>39161</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>39004</t>
   </si>
   <si>
     <t>TianKampmann2021_CRISPRa</t>
@@ -1843,46 +1841,46 @@
     <t>01.07.2020</t>
   </si>
   <si>
-    <t>21193.0</t>
-  </si>
-  <si>
-    <t>3613.0</t>
-  </si>
-  <si>
-    <t>10263.0</t>
-  </si>
-  <si>
-    <t>196.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>592.0</t>
+    <t>21193</t>
+  </si>
+  <si>
+    <t>3613</t>
+  </si>
+  <si>
+    <t>10263</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>592</t>
   </si>
   <si>
     <t>TianKampmann2021_CRISPRi</t>
   </si>
   <si>
-    <t>32300.0</t>
-  </si>
-  <si>
-    <t>184.0</t>
-  </si>
-  <si>
-    <t>4521.0</t>
-  </si>
-  <si>
-    <t>13609.0</t>
-  </si>
-  <si>
-    <t>166.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>437.0</t>
+    <t>32300</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>4521</t>
+  </si>
+  <si>
+    <t>13609</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>437</t>
   </si>
   <si>
     <t>WeinrebKlein2020</t>
@@ -1906,22 +1904,22 @@
     <t>mixed hematopoeitic</t>
   </si>
   <si>
-    <t>65075.0</t>
-  </si>
-  <si>
-    <t>1333.0</t>
+    <t>65075</t>
+  </si>
+  <si>
+    <t>1333</t>
   </si>
   <si>
     <t>3229.886474609375</t>
   </si>
   <si>
-    <t>9815.0</t>
-  </si>
-  <si>
-    <t>6113.0</t>
-  </si>
-  <si>
-    <t>26306.0</t>
+    <t>9815</t>
+  </si>
+  <si>
+    <t>6113</t>
+  </si>
+  <si>
+    <t>26306</t>
   </si>
   <si>
     <t>WesselsSatija2023</t>
@@ -1951,25 +1949,25 @@
     <t>myeloid cells</t>
   </si>
   <si>
-    <t>30707.0</t>
-  </si>
-  <si>
-    <t>186.0</t>
-  </si>
-  <si>
-    <t>2751.0</t>
-  </si>
-  <si>
-    <t>8782.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>773.0</t>
+    <t>30707</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>8782</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>773</t>
   </si>
   <si>
     <t>XieHon2017</t>
@@ -1993,19 +1991,19 @@
     <t>01.03.2016</t>
   </si>
   <si>
-    <t>13283.0</t>
-  </si>
-  <si>
-    <t>3384.0</t>
-  </si>
-  <si>
-    <t>3186.0</t>
-  </si>
-  <si>
-    <t>46619.0</t>
-  </si>
-  <si>
-    <t>7063.0</t>
+    <t>13283</t>
+  </si>
+  <si>
+    <t>3384</t>
+  </si>
+  <si>
+    <t>3186</t>
+  </si>
+  <si>
+    <t>46619</t>
+  </si>
+  <si>
+    <t>7063</t>
   </si>
   <si>
     <t>XuCao2023</t>
@@ -2029,22 +2027,22 @@
     <t>embryonic kidney cells</t>
   </si>
   <si>
-    <t>98315.0</t>
-  </si>
-  <si>
-    <t>203.0</t>
-  </si>
-  <si>
-    <t>1210.0</t>
-  </si>
-  <si>
-    <t>2155.0</t>
-  </si>
-  <si>
-    <t>401.0</t>
-  </si>
-  <si>
-    <t>2758.0</t>
+    <t>98315</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>2155</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>2758</t>
   </si>
   <si>
     <t>YaoCleary2023</t>
@@ -2062,22 +2060,22 @@
     <t>CRISPR-cas9, CRISPRi</t>
   </si>
   <si>
-    <t>210131.0</t>
-  </si>
-  <si>
-    <t>38788.0</t>
-  </si>
-  <si>
-    <t>2832.0</t>
-  </si>
-  <si>
-    <t>9293.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>16243.0</t>
+    <t>210131</t>
+  </si>
+  <si>
+    <t>38788</t>
+  </si>
+  <si>
+    <t>2832</t>
+  </si>
+  <si>
+    <t>9293</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>16243</t>
   </si>
   <si>
     <t>ZhaoSims2021</t>
@@ -2101,31 +2099,31 @@
     <t>01.04.2020</t>
   </si>
   <si>
-    <t>165748.0</t>
-  </si>
-  <si>
-    <t>1172.0</t>
-  </si>
-  <si>
-    <t>2051.0</t>
-  </si>
-  <si>
-    <t>7085.0</t>
-  </si>
-  <si>
-    <t>2683.0</t>
-  </si>
-  <si>
-    <t>88313.0</t>
+    <t>165748</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>2051</t>
+  </si>
+  <si>
+    <t>7085</t>
+  </si>
+  <si>
+    <t>2683</t>
+  </si>
+  <si>
+    <t>88313</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2153,22 +2151,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -2306,6 +2297,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -2316,31 +2308,27 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -2362,7 +2350,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2420,7 +2408,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -2433,12 +2421,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -2450,30 +2439,54 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:AE59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="31" width="13" bestFit="1" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2596,76 +2609,76 @@
       <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1">
-        <v>10044268</v>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2674,7 +2687,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -2691,76 +2704,76 @@
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1">
-        <v>10044268</v>
+      <c r="J3" t="s">
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -2769,7 +2782,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -2786,183 +2799,189 @@
       <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1">
-        <v>10044268</v>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
         <v>48</v>
       </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" t="s">
-        <v>47</v>
-      </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1">
-        <v>10044268</v>
+      <c r="J5" t="s">
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
         <v>48</v>
       </c>
-      <c r="U5" t="s">
-        <v>47</v>
-      </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Z5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AE5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -2970,272 +2989,284 @@
       <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1">
-        <v>10044268</v>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AE6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1">
-        <v>10044268</v>
+      <c r="J7" t="s">
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>79</v>
       </c>
       <c r="W7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AD7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AE7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="1">
-        <v>10044268</v>
+      <c r="J8" t="s">
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
         <v>48</v>
       </c>
-      <c r="T8" t="s">
-        <v>48</v>
-      </c>
-      <c r="U8" t="s">
-        <v>47</v>
-      </c>
       <c r="V8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Z8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AB8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC8" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="AD8" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AE8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
@@ -3243,349 +3274,379 @@
       <c r="I9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="1">
-        <v>10044268</v>
+      <c r="J9" t="s">
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
         <v>48</v>
       </c>
-      <c r="T9" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" t="s">
-        <v>47</v>
-      </c>
       <c r="V9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="W9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Y9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Z9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AA9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AB9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AD9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AE9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="1">
-        <v>10044268</v>
+      <c r="J10" t="s">
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
         <v>48</v>
       </c>
-      <c r="U10" t="s">
-        <v>47</v>
-      </c>
       <c r="V10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="W10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Z10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AA10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AB10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10044268</v>
+        <v>181</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Y11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Z11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AA11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AD11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AE11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10044268</v>
+        <v>196</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
         <v>38</v>
@@ -3593,94 +3654,94 @@
       <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="1">
-        <v>10044268</v>
+      <c r="J13" t="s">
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" t="s">
         <v>48</v>
       </c>
-      <c r="T13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" t="s">
-        <v>47</v>
-      </c>
       <c r="V13" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="W13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="X13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Y13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Z13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AA13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AB13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AC13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
         <v>38</v>
@@ -3688,94 +3749,94 @@
       <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="1">
-        <v>10044268</v>
+      <c r="J14" t="s">
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
         <v>48</v>
       </c>
-      <c r="T14" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" t="s">
-        <v>47</v>
-      </c>
       <c r="V14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="W14" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="X14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Y14" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Z14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AA14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AB14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AC14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
@@ -3783,186 +3844,189 @@
       <c r="I15" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="1">
-        <v>10044268</v>
+      <c r="J15" t="s">
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" t="s">
         <v>48</v>
       </c>
-      <c r="T15" t="s">
-        <v>48</v>
-      </c>
-      <c r="U15" t="s">
-        <v>47</v>
-      </c>
       <c r="V15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="W15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="X15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Z15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AA15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AB15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AC15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="1">
-        <v>10044268</v>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M16" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
         <v>48</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>48</v>
       </c>
-      <c r="T16" t="s">
-        <v>47</v>
-      </c>
-      <c r="U16" t="s">
-        <v>47</v>
-      </c>
       <c r="V16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="W16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AA16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AB16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AD16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AE16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
@@ -3970,76 +4034,94 @@
       <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="1">
-        <v>10044268</v>
+      <c r="J17" t="s">
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N17" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s">
+        <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="S17" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s">
+        <v>79</v>
       </c>
       <c r="W17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Y17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z17" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AB17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AD17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H18" t="s">
         <v>38</v>
@@ -4047,580 +4129,664 @@
       <c r="I18" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="1">
-        <v>10044268</v>
+      <c r="J18" t="s">
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N18" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s">
+        <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="R18" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="S18" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s">
+        <v>79</v>
       </c>
       <c r="W18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X18" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y18" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Z18" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AA18" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AB18" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AC18" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AD18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AE18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G19" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="1">
-        <v>10044268</v>
+      <c r="J19" t="s">
+        <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" t="s">
         <v>48</v>
       </c>
-      <c r="S19" t="s">
-        <v>47</v>
-      </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="V19" t="s">
+        <v>79</v>
       </c>
       <c r="W19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Y19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Z19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AA19" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AB19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AD19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AE19" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="1">
-        <v>10044268</v>
+      <c r="J20" t="s">
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M20" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" t="s">
         <v>48</v>
       </c>
-      <c r="S20" t="s">
-        <v>47</v>
-      </c>
       <c r="T20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="V20" t="s">
+        <v>79</v>
       </c>
       <c r="W20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X20" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Z20" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AA20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC20" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AD20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AE20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G21" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="1">
-        <v>10044268</v>
+      <c r="J21" t="s">
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M21" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U21" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="V21" t="s">
+        <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Y21" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Z21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AA21" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AB21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC21" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AD21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>291</v>
+        <v>295</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G22" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="1">
-        <v>10044268</v>
+      <c r="J22" t="s">
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N22" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P22" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q22" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="R22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" t="s">
         <v>48</v>
       </c>
-      <c r="S22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T22" t="s">
-        <v>48</v>
-      </c>
-      <c r="U22" t="s">
-        <v>47</v>
+      <c r="V22" t="s">
+        <v>79</v>
       </c>
       <c r="W22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X22" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Y22" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Z22" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AA22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AB22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC22" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AD22" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AE22" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G23" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>312</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
+      </c>
+      <c r="J23" t="s">
+        <v>317</v>
       </c>
       <c r="K23" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L23" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M23" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V23" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="W23" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="X23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G24" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>312</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
+      </c>
+      <c r="J24" t="s">
+        <v>317</v>
       </c>
       <c r="K24" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V24" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="W24" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="X24" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>324</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H25" t="s">
         <v>38</v>
@@ -4628,88 +4794,94 @@
       <c r="I25" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="1">
-        <v>10044268</v>
+      <c r="J25" t="s">
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M25" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S25" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" t="s">
         <v>48</v>
       </c>
-      <c r="T25" t="s">
-        <v>48</v>
-      </c>
-      <c r="U25" t="s">
-        <v>47</v>
+      <c r="V25" t="s">
+        <v>79</v>
       </c>
       <c r="W25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X25" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Y25" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Z25" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AA25" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AB25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC25" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AD25" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE25" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>338</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G26" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H26" t="s">
         <v>38</v>
@@ -4717,156 +4889,189 @@
       <c r="I26" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="1">
-        <v>10044268</v>
+      <c r="J26" t="s">
+        <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L26" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M26" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N26" t="s">
-        <v>340</v>
+        <v>344</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="s">
+        <v>79</v>
       </c>
       <c r="Q26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="T26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V26" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="W26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X26" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Y26" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Z26" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA26" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AB26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC26" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AD26" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AE26" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>349</v>
+        <v>353</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F27" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G27" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>353</v>
-      </c>
-      <c r="J27" s="1">
-        <v>10044268</v>
+        <v>357</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M27" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V27" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="W27" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="X27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F28" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G28" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H28" t="s">
         <v>38</v>
@@ -4874,719 +5079,854 @@
       <c r="I28" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="1">
-        <v>10044268</v>
+      <c r="J28" t="s">
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N28" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" t="s">
         <v>48</v>
       </c>
-      <c r="T28" t="s">
-        <v>48</v>
-      </c>
-      <c r="U28" t="s">
-        <v>47</v>
-      </c>
       <c r="V28" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="W28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X28" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Y28" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Z28" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AA28" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AB28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC28" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AD28" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AE28" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D29" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E29" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F29" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G29" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H29" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" s="1">
-        <v>10044268</v>
+        <v>181</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M29" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O29" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P29" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V29" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="W29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X29" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y29" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Z29" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AA29" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AB29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC29" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AD29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE29" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D30" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F30" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G30" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H30" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
-      </c>
-      <c r="J30" s="1">
-        <v>10044268</v>
+        <v>181</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M30" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N30" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O30" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P30" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V30" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="W30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X30" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Y30" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Z30" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AA30" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AB30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC30" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AD30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE30" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E31" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G31" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H31" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" s="1">
-        <v>10044268</v>
+        <v>196</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M31" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O31" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P31" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V31" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="W31" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="X31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D32" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E32" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F32" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G32" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H32" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="1">
-        <v>10044268</v>
+        <v>196</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M32" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O32" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P32" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V32" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="W32" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="X32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D33" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F33" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G33" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H33" t="s">
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>312</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
+      </c>
+      <c r="J33" t="s">
+        <v>317</v>
       </c>
       <c r="K33" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M33" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="N33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W33" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="X33" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G34" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H34" t="s">
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W34" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="X34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D35" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E35" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F35" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G35" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H35" t="s">
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
+      </c>
+      <c r="J35" t="s">
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M35" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="N35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P35" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W35" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="X35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D36" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E36" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F36" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G36" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I36" t="s">
-        <v>177</v>
-      </c>
-      <c r="J36" s="1">
-        <v>10044268</v>
+        <v>181</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M36" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="N36" t="s">
-        <v>425</v>
+        <v>429</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q36" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="R36" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="S36" t="s">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s">
+        <v>79</v>
       </c>
       <c r="W36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X36" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Y36" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Z36" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AA36" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AB36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC36" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AD36" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AE36" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E37" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F37" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G37" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
@@ -5594,94 +5934,94 @@
       <c r="I37" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="1">
-        <v>10044268</v>
+      <c r="J37" t="s">
+        <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O37" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V37" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="W37" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="X37" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Y37" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Z37" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AA37" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AB37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC37" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AD37" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AE37" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D38" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E38" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F38" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G38" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H38" t="s">
         <v>38</v>
@@ -5689,94 +6029,94 @@
       <c r="I38" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="1">
-        <v>10044268</v>
+      <c r="J38" t="s">
+        <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V38" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="W38" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="X38" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Y38" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Z38" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AA38" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AB38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC38" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AD38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE38" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D39" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E39" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F39" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G39" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
@@ -5784,548 +6124,569 @@
       <c r="I39" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="1">
-        <v>10044268</v>
+      <c r="J39" t="s">
+        <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="M39" t="s">
+        <v>79</v>
       </c>
       <c r="N39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O39" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P39" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V39" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="W39" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="X39" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Y39" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Z39" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AA39" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AB39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC39" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AD39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE39" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>465</v>
+        <v>469</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F40" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G40" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="1">
-        <v>10044268</v>
+      <c r="J40" t="s">
+        <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L40" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M40" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P40" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R40" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="S40" t="s">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s">
+        <v>79</v>
       </c>
       <c r="W40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X40" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Y40" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Z40" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AA40" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AB40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC40" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AD40" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AE40" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D41" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E41" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F41" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G41" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I41" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="1">
-        <v>10044268</v>
+      <c r="J41" t="s">
+        <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L41" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M41" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q41" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="R41" t="s">
+        <v>49</v>
+      </c>
+      <c r="S41" t="s">
         <v>48</v>
       </c>
-      <c r="S41" t="s">
-        <v>47</v>
-      </c>
       <c r="T41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V41" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="W41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X41" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Y41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z41" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AA41" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AB41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC41" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AD41" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AE41" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D42" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F42" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G42" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
       </c>
-      <c r="J42" s="1">
-        <v>10044268</v>
+      <c r="J42" t="s">
+        <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M42" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="R42" t="s">
+        <v>49</v>
+      </c>
+      <c r="S42" t="s">
         <v>48</v>
       </c>
-      <c r="S42" t="s">
-        <v>47</v>
-      </c>
       <c r="T42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V42" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="W42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X42" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Y42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z42" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AA42" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AB42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC42" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AD42" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AE42" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D43" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E43" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F43" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G43" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="1">
-        <v>10044268</v>
+      <c r="J43" t="s">
+        <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O43" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S43" t="s">
+        <v>49</v>
+      </c>
+      <c r="T43" t="s">
+        <v>49</v>
+      </c>
+      <c r="U43" t="s">
         <v>48</v>
       </c>
-      <c r="T43" t="s">
-        <v>48</v>
-      </c>
-      <c r="U43" t="s">
-        <v>47</v>
-      </c>
       <c r="V43" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="W43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X43" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Y43" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="Z43" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AA43" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AB43" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AC43" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AD43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE43" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D44" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E44" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F44" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G44" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="1">
-        <v>10044268</v>
+      <c r="J44" t="s">
+        <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L44" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O44" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
+        <v>49</v>
+      </c>
+      <c r="T44" t="s">
+        <v>49</v>
+      </c>
+      <c r="U44" t="s">
         <v>48</v>
       </c>
-      <c r="T44" t="s">
-        <v>48</v>
-      </c>
-      <c r="U44" t="s">
-        <v>47</v>
-      </c>
       <c r="V44" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="W44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X44" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="Y44" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Z44" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AA44" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AB44" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AC44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE44" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>523</v>
+        <v>527</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F45" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G45" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H45" t="s">
         <v>38</v>
@@ -6333,376 +6694,379 @@
       <c r="I45" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="1">
-        <v>10044268</v>
+      <c r="J45" t="s">
+        <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="N45" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R45" t="s">
+        <v>49</v>
+      </c>
+      <c r="S45" t="s">
+        <v>49</v>
+      </c>
+      <c r="T45" t="s">
+        <v>49</v>
+      </c>
+      <c r="U45" t="s">
         <v>48</v>
       </c>
-      <c r="S45" t="s">
-        <v>48</v>
-      </c>
-      <c r="T45" t="s">
-        <v>48</v>
-      </c>
-      <c r="U45" t="s">
-        <v>47</v>
-      </c>
       <c r="V45" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="W45" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="X45" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Y45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Z45" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AA45" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AB45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC45" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AD45" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AE45" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D46" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E46" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F46" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G46" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="1">
-        <v>10044268</v>
+      <c r="J46" t="s">
+        <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M46" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S46" t="s">
+        <v>49</v>
+      </c>
+      <c r="T46" t="s">
         <v>48</v>
       </c>
-      <c r="T46" t="s">
-        <v>47</v>
-      </c>
       <c r="U46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V46" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="W46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X46" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Y46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z46" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AA46" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AB46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC46" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AD46" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AE46" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D47" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E47" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F47" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G47" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="1">
-        <v>10044268</v>
+      <c r="J47" t="s">
+        <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M47" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O47" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P47" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S47" t="s">
+        <v>49</v>
+      </c>
+      <c r="T47" t="s">
         <v>48</v>
       </c>
-      <c r="T47" t="s">
-        <v>47</v>
-      </c>
       <c r="U47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V47" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="W47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X47" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Y47" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z47" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AA47" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AB47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC47" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AD47" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AE47" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D48" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E48" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F48" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G48" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
       </c>
-      <c r="J48" s="1">
-        <v>10044268</v>
+      <c r="J48" t="s">
+        <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L48" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M48" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="N48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S48" t="s">
+        <v>49</v>
+      </c>
+      <c r="T48" t="s">
         <v>48</v>
       </c>
-      <c r="T48" t="s">
-        <v>47</v>
-      </c>
       <c r="U48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V48" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="W48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X48" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="Y48" t="s">
-        <v>562</v>
+        <v>92</v>
       </c>
       <c r="Z48" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AA48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AB48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC48" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AD48" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AE48" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>567</v>
+        <v>570</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F49" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G49" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
@@ -6710,91 +7074,94 @@
       <c r="I49" t="s">
         <v>39</v>
       </c>
-      <c r="J49" s="1">
-        <v>10044268</v>
+      <c r="J49" t="s">
+        <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L49" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M49" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="N49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O49" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P49" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S49" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" t="s">
+        <v>49</v>
+      </c>
+      <c r="U49" t="s">
         <v>48</v>
       </c>
-      <c r="T49" t="s">
-        <v>48</v>
-      </c>
-      <c r="U49" t="s">
-        <v>47</v>
+      <c r="V49" t="s">
+        <v>79</v>
       </c>
       <c r="W49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X49" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Y49" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Z49" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AA49" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AB49" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AC49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE49" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D50" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E50" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F50" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G50" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H50" t="s">
         <v>38</v>
@@ -6802,94 +7169,94 @@
       <c r="I50" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="1">
-        <v>10044268</v>
+      <c r="J50" t="s">
+        <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M50" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="N50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q50" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S50" t="s">
         <v>48</v>
       </c>
-      <c r="S50" t="s">
-        <v>47</v>
-      </c>
       <c r="T50" t="s">
+        <v>49</v>
+      </c>
+      <c r="U50" t="s">
         <v>48</v>
       </c>
-      <c r="U50" t="s">
-        <v>47</v>
-      </c>
       <c r="V50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X50" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="Y50" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="Z50" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AA50" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="AB50" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AC50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE50" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D51" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E51" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F51" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G51" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H51" t="s">
         <v>38</v>
@@ -6897,94 +7264,94 @@
       <c r="I51" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="1">
-        <v>10044268</v>
+      <c r="J51" t="s">
+        <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L51" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M51" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="N51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O51" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P51" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R51" t="s">
+        <v>49</v>
+      </c>
+      <c r="S51" t="s">
+        <v>48</v>
+      </c>
+      <c r="T51" t="s">
+        <v>49</v>
+      </c>
+      <c r="U51" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51" t="s">
+        <v>50</v>
+      </c>
+      <c r="W51" t="s">
+        <v>51</v>
+      </c>
+      <c r="X51" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB51" t="s">
         <v>595</v>
       </c>
-      <c r="Q51" t="s">
-        <v>245</v>
-      </c>
-      <c r="R51" t="s">
-        <v>48</v>
-      </c>
-      <c r="S51" t="s">
-        <v>47</v>
-      </c>
-      <c r="T51" t="s">
-        <v>48</v>
-      </c>
-      <c r="U51" t="s">
-        <v>47</v>
-      </c>
-      <c r="V51" t="s">
-        <v>49</v>
-      </c>
-      <c r="W51" t="s">
-        <v>50</v>
-      </c>
-      <c r="X51" t="s">
-        <v>596</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>597</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>598</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>592</v>
-      </c>
       <c r="AC51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE51" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D52" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E52" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F52" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G52" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H52" t="s">
         <v>38</v>
@@ -6992,94 +7359,94 @@
       <c r="I52" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="1">
-        <v>10044268</v>
+      <c r="J52" t="s">
+        <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="N52" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O52" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V52" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="W52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X52" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Y52" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="Z52" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AA52" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AB52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC52" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AD52" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AE52" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F53" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G53" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H53" t="s">
         <v>38</v>
@@ -7087,364 +7454,379 @@
       <c r="I53" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="1">
-        <v>10044268</v>
+      <c r="J53" t="s">
+        <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M53" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="N53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O53" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V53" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="W53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X53" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Y53" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Z53" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AA53" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AB53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC53" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AD53" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AE53" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>621</v>
+        <v>624</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F54" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G54" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="1">
-        <v>10044268</v>
+      <c r="J54" t="s">
+        <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M54" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="N54" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O54" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Q54" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="R54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S54" t="s">
         <v>48</v>
       </c>
-      <c r="S54" t="s">
-        <v>47</v>
-      </c>
       <c r="T54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X54" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Y54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z54" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AA54" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AB54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC54" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AD54" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AE54" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>634</v>
+        <v>637</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F55" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G55" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="1">
-        <v>10044268</v>
+      <c r="J55" t="s">
+        <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L55" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M55" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="N55" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="O55" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="P55" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="Q55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S55" t="s">
+        <v>49</v>
+      </c>
+      <c r="T55" t="s">
+        <v>49</v>
+      </c>
+      <c r="U55" t="s">
         <v>48</v>
       </c>
-      <c r="T55" t="s">
-        <v>48</v>
-      </c>
-      <c r="U55" t="s">
-        <v>47</v>
+      <c r="V55" t="s">
+        <v>79</v>
       </c>
       <c r="W55" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X55" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="Y55" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="Z55" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AA55" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AB55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC55" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AD55" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AE55" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>650</v>
+        <v>653</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F56" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G56" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
         <v>39</v>
       </c>
-      <c r="J56" s="1">
-        <v>10044268</v>
+      <c r="J56" t="s">
+        <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L56" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O56" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U56" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="V56" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="W56" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X56" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="Y56" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="Z56" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AA56" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AB56" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AC56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE56" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>662</v>
+        <v>665</v>
+      </c>
+      <c r="D57" t="s">
+        <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F57" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G57" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="H57" t="s">
         <v>38</v>
@@ -7452,79 +7834,94 @@
       <c r="I57" t="s">
         <v>39</v>
       </c>
-      <c r="J57" s="1">
-        <v>10044268</v>
+      <c r="J57" t="s">
+        <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M57" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="N57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Q57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R57" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="S57" t="s">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s">
+        <v>79</v>
       </c>
       <c r="W57" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X57" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Y57" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="Z57" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AA57" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AB57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC57" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AD57" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AE57" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>675</v>
+        <v>678</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F58" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="G58" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
@@ -7532,76 +7929,94 @@
       <c r="I58" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="1">
-        <v>10044268</v>
+      <c r="J58" t="s">
+        <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M58" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N58" t="s">
-        <v>679</v>
+        <v>682</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R58" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="S58" t="s">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s">
+        <v>79</v>
       </c>
       <c r="W58" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="X58" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="Y58" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="Z58" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AA58" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AB58" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AC58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE58" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>686</v>
+        <v>689</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F59" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G59" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H59" t="s">
         <v>38</v>
@@ -7609,74 +8024,73 @@
       <c r="I59" t="s">
         <v>39</v>
       </c>
-      <c r="J59" s="1">
-        <v>10044268</v>
+      <c r="J59" t="s">
+        <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L59" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M59" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O59" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="P59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V59" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="W59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X59" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="Y59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z59" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AA59" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AB59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC59" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AD59" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AE59" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>